--- a/Excel/EquipSuitConfig.xlsx
+++ b/Excel/EquipSuitConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WeiJingGame_Hot\trunk_weijing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BCBE9D-1C47-411A-AA44-68514CA30737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B121BC0-081C-4BE2-9560-9497EAB23A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2246,10 +2246,10 @@
   <dimension ref="C1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E53" sqref="E53"/>
+      <selection pane="bottomRight" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/EquipSuitConfig.xlsx
+++ b/Excel/EquipSuitConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WeiJingGame_Hot\trunk_weijing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B121BC0-081C-4BE2-9560-9497EAB23A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B93B51A-521D-45D6-8E4D-1DC999505B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-525" yWindow="945" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipSuitProto" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="161">
   <si>
     <t>套装名称</t>
   </si>
@@ -71,533 +71,598 @@
     <t>Name</t>
   </si>
   <si>
+    <t>SuitPropertyID</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>永恒套装1</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>10030501;10030503</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2221</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>新兵套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>10030110;10030105;10030102</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>10030214;10030203</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>布纹套装</t>
+  </si>
+  <si>
+    <t>10030208;10030211;10030210</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌风套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>10030220;10030222</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>古墓套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>10030256;10030257;10030258</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>10030301;10030303</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>10030317;10030311;10030320;10030309;10030334;10030335</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>10030305;10030307</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>10030315;10030313;10030316</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒漠套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>10030324;10030325;10030326;10030327</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>破灵套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>10030422;10030423</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰河套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>10030424;10030425;10030426</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰封套装1</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>10030401;10030403</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰封套装2</t>
+  </si>
+  <si>
+    <t>10030418;10030411;10030420;10030409;10030433;10030434</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰封套装3</t>
+  </si>
+  <si>
+    <t>10030405;10030407</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰封套装4</t>
+  </si>
+  <si>
+    <t>10030415;10030413;10030416</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>10030522;10030523</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>暮色套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>10030524;10030525;10030526;10030527;10030528;10030529</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>永恒套装2</t>
+  </si>
+  <si>
+    <t>10030518;10030511;10030520;10030509;10030535</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>永恒套装3</t>
+  </si>
+  <si>
+    <t>10030505;10030507</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>永恒套装4</t>
+  </si>
+  <si>
+    <t>10030515;10030513;10030516;10030536</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>10030622;10030623</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>炙热套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>10030624;10030625;10030626;10030627;10030628;10030629</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣光套装1</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>10030601;10030603</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣光套装2</t>
+  </si>
+  <si>
+    <t>10030618;10030611;10030620;10030609</t>
+  </si>
+  <si>
+    <t>圣光套装3</t>
+  </si>
+  <si>
+    <t>10030605;10030607</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣光套装4</t>
+  </si>
+  <si>
+    <t>10030615;10030613;10030616</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>10030630;10030631</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>10030639;10030635;10030640;10030634</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>10030632;10030633</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>10030637;10030636;10030638</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,1001</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1011</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1021;2,1022;3,1023</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1024</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,1025</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2001</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2011;3,2012;4,2013;4,2014</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2021</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,2031</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2041;4,2042</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2101</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,2102</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2111</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2121;3,2122;4,2123</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2131</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,2141</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2201</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2211;4,2212;6,2213</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2231;3,2232;4,2233</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2241</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,2251</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2311;4,2312;6,2313</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2321</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2331;3,2332;4,2333</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2341</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,2351</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2421</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2431;3,2432;4,2433</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2441</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,2451</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔域套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔域套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>红宝石套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅影套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>14010003;14020003;14030003;14040003</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,110111;4,110112</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>14050003;14110003</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,110121</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵纹套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>14010007;14020007;14030007;14040007</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,110211;4,110212</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>14050007;14110007</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,110221</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>战灵套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>14010011;14020011;14030011;14040011</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,110311;4,110312</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>14050011;14110011</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,110321</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,110411;4,110412;6,110413</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,110421;4,110422;6,110423</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,110431;4,110432;6,110433</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>命运套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>神谕套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙脊套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>14010004;14020004;14030004;14040004;14050004;14110004;14110021</t>
+  </si>
+  <si>
+    <t>14010008;14020008;14030008;14040008;14050008;14110008;14110022</t>
+  </si>
+  <si>
+    <t>14010012;14020012;14030012;14040012;14050012;14110012;14110023</t>
+  </si>
+  <si>
+    <t>勇者套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>14060005;14100011;14100012</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>15206003;15210011;15210012</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒心套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>15306003;15310011;15310012</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>15406003;15410011;15410012</t>
+  </si>
+  <si>
+    <t>15506003;15510011;15510012</t>
+  </si>
+  <si>
+    <t>启示者套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>毁灭者套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>王者力量套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>永恒套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>风灵套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣灵套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>无尽套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>风暴套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>银月套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔灵套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>秩序套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>无畏套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>贤者套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙鸣套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,120001</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,110511;4,110512;6,110513</t>
+  </si>
+  <si>
+    <t>2,110521;4,110522;6,110523</t>
+  </si>
+  <si>
+    <t>2,110531;4,110532;6,110533</t>
+  </si>
+  <si>
     <t>NeedEquipID</t>
-  </si>
-  <si>
-    <t>SuitPropertyID</t>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>永恒套装1</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>10030501;10030503</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2221</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>新兵套装</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>10030110;10030105;10030102</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>10030214;10030203</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>布纹套装</t>
-  </si>
-  <si>
-    <t>10030208;10030211;10030210</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>凌风套装</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>10030220;10030222</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>古墓套装</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>10030256;10030257;10030258</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>10030301;10030303</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>10030317;10030311;10030320;10030309;10030334;10030335</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>10030305;10030307</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>10030315;10030313;10030316</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>荒漠套装</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>10030324;10030325;10030326;10030327</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>破灵套装</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>10030422;10030423</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰河套装</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>10030424;10030425;10030426</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰封套装1</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>10030401;10030403</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰封套装2</t>
-  </si>
-  <si>
-    <t>10030418;10030411;10030420;10030409;10030433;10030434</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰封套装3</t>
-  </si>
-  <si>
-    <t>10030405;10030407</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰封套装4</t>
-  </si>
-  <si>
-    <t>10030415;10030413;10030416</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>精灵套装</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>10030522;10030523</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>暮色套装</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>10030524;10030525;10030526;10030527;10030528;10030529</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>永恒套装2</t>
-  </si>
-  <si>
-    <t>10030518;10030511;10030520;10030509;10030535</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>永恒套装3</t>
-  </si>
-  <si>
-    <t>10030505;10030507</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>永恒套装4</t>
-  </si>
-  <si>
-    <t>10030515;10030513;10030516;10030536</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>熔岩套装</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>10030622;10030623</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>炙热套装</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>10030624;10030625;10030626;10030627;10030628;10030629</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣光套装1</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>10030601;10030603</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣光套装2</t>
-  </si>
-  <si>
-    <t>10030618;10030611;10030620;10030609</t>
-  </si>
-  <si>
-    <t>圣光套装3</t>
-  </si>
-  <si>
-    <t>10030605;10030607</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣光套装4</t>
-  </si>
-  <si>
-    <t>10030615;10030613;10030616</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>10030630;10030631</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>10030639;10030635;10030640;10030634</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>10030632;10030633</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>10030637;10030636;10030638</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,1001</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,1011</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,1021;2,1022;3,1023</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,1024</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,1025</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2001</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2011;3,2012;4,2013;4,2014</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2021</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,2031</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2041;4,2042</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2101</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,2102</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2111</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2121;3,2122;4,2123</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2131</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,2141</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2201</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2211;4,2212;6,2213</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2231;3,2232;4,2233</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2241</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,2251</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2311;4,2312;6,2313</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2321</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2331;3,2332;4,2333</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2341</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,2351</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2421</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2431;3,2432;4,2433</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2441</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,2451</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔域套装</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔域套装</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>红宝石套装</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>迅影套装</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>14010003;14020003;14030003;14040003</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,110111;4,110112</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>14050003;14110003</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,110121</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵纹套装</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>14010007;14020007;14030007;14040007</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,110211;4,110212</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>14050007;14110007</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,110221</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>战灵套装</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>14010011;14020011;14030011;14040011</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,110311;4,110312</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>14050011;14110011</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,110321</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>勇气套装</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>14010004;14020004;14030004;14040004;14050004;14110004</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,110411;4,110412;6,110413</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴灵套装</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>14010008;14020008;14030008;14040008;14050008;14110008</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,110421;4,110422;6,110423</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>英勇套装</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>14010012;14020012;14030012;14040012;14050012;14110012</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,110431;4,110432;6,110433</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>命运套装</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>15201002;15202002;15203002;15204002;15205002;15211002</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔光套装</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>15201004;15202004;15203004;15204004;15205004;15211004</t>
-  </si>
-  <si>
-    <t>熔铸套装</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>15201006;15202006;15203006;15204006;15205006;15211006</t>
-  </si>
-  <si>
-    <t>怒风套装</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>15301002;15302002;15303002;15304002;15305002;15311002</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>信念套装</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>15301004;15302004;15303004;15304004;15305004;15311004</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷霆套装</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>15301006;15302006;15303006;15304006;15305006;15311006</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>苍穹套装</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>15401002;15402002;15403002;15404002;15405002;15411002</t>
-  </si>
-  <si>
-    <t>神谕套装</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>15401004;15402004;15403004;15404004;15405004;15411004</t>
-  </si>
-  <si>
-    <t>龙脊套装</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>15401006;15402006;15403006;15404006;15405006;15411006</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>15201002;15202002;15203002;15204002;15205002;15211002;15211011</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>15201004;15202004;15203004;15204004;15205004;15211004;15211012</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>15201006;15202006;15203006;15204006;15205006;15211006;15211013</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>15301002;15302002;15303002;15304002;15305002;15311002;15311011</t>
+  </si>
+  <si>
+    <t>15301004;15302004;15303004;15304004;15305004;15311004;15311012</t>
+  </si>
+  <si>
+    <t>15301006;15302006;15303006;15304006;15305006;15311006;15311013</t>
+  </si>
+  <si>
+    <t>15401002;15402002;15403002;15404002;15405002;15411002;15411011</t>
+  </si>
+  <si>
+    <t>15401004;15402004;15403004;15404004;15405004;15411004;15411012</t>
+  </si>
+  <si>
+    <t>15401006;15402006;15403006;15404006;15405006;15411006;15411013</t>
+  </si>
+  <si>
+    <t>15501002;15502002;15503002;15504002;15505002;15511002;15511011</t>
+  </si>
+  <si>
+    <t>15501004;15502004;15503004;15504004;15505004;15511004;15511012</t>
+  </si>
+  <si>
+    <t>15501006;15502006;15503006;15504006;15505006;15511006;15511013</t>
   </si>
 </sst>
 </file>
@@ -847,7 +912,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="49">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1120,6 +1185,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1751,7 +1822,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1785,6 +1856,12 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="48" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="49" borderId="12" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="154">
@@ -2243,13 +2320,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:F70"/>
+  <dimension ref="C1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E42" sqref="E42"/>
+      <selection pane="bottomRight" activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2257,7 +2334,7 @@
     <col min="2" max="2" width="9.125" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="52" customWidth="1"/>
+    <col min="5" max="5" width="68.875" customWidth="1"/>
     <col min="6" max="6" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2267,7 +2344,7 @@
     </row>
     <row r="3" spans="3:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>0</v>
@@ -2281,30 +2358,30 @@
     </row>
     <row r="4" spans="3:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="3:6" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2312,13 +2389,13 @@
         <v>1001</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>15</v>
-      </c>
       <c r="F6" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2326,13 +2403,13 @@
         <v>1101</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2340,13 +2417,13 @@
         <v>1102</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>18</v>
-      </c>
       <c r="F8" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2354,13 +2431,13 @@
         <v>1103</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>20</v>
-      </c>
       <c r="F9" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2368,13 +2445,13 @@
         <v>1104</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="F10" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2382,13 +2459,13 @@
         <v>1201</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2396,13 +2473,13 @@
         <v>1202</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2410,13 +2487,13 @@
         <v>1203</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2424,13 +2501,13 @@
         <v>1204</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2438,13 +2515,13 @@
         <v>1205</v>
       </c>
       <c r="D15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="F15" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2452,13 +2529,13 @@
         <v>1301</v>
       </c>
       <c r="D16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="F16" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2466,13 +2543,13 @@
         <v>1302</v>
       </c>
       <c r="D17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>32</v>
-      </c>
       <c r="F17" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2480,13 +2557,13 @@
         <v>1303</v>
       </c>
       <c r="D18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="F18" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2494,13 +2571,13 @@
         <v>1304</v>
       </c>
       <c r="D19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="F19" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2508,13 +2585,13 @@
         <v>1305</v>
       </c>
       <c r="D20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="F20" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2522,13 +2599,13 @@
         <v>1306</v>
       </c>
       <c r="D21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="F21" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2536,13 +2613,13 @@
         <v>1401</v>
       </c>
       <c r="D22" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>42</v>
-      </c>
       <c r="F22" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2550,13 +2627,13 @@
         <v>1402</v>
       </c>
       <c r="D23" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>44</v>
-      </c>
       <c r="F23" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2564,13 +2641,13 @@
         <v>1403</v>
       </c>
       <c r="D24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="F24" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="25" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2578,13 +2655,13 @@
         <v>1404</v>
       </c>
       <c r="D25" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>46</v>
-      </c>
       <c r="F25" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2592,13 +2669,13 @@
         <v>1405</v>
       </c>
       <c r="D26" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>48</v>
-      </c>
       <c r="F26" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2606,13 +2683,13 @@
         <v>1406</v>
       </c>
       <c r="D27" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>50</v>
-      </c>
       <c r="F27" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2620,13 +2697,13 @@
         <v>1501</v>
       </c>
       <c r="D28" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="F28" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2634,13 +2711,13 @@
         <v>1502</v>
       </c>
       <c r="D29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="F29" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2648,13 +2725,13 @@
         <v>1503</v>
       </c>
       <c r="D30" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="F30" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2662,13 +2739,13 @@
         <v>1504</v>
       </c>
       <c r="D31" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="F31" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2676,13 +2753,13 @@
         <v>1505</v>
       </c>
       <c r="D32" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="F32" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2690,13 +2767,13 @@
         <v>1506</v>
       </c>
       <c r="D33" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="F33" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2704,13 +2781,13 @@
         <v>1513</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2718,13 +2795,13 @@
         <v>1514</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2732,13 +2809,13 @@
         <v>1515</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2746,13 +2823,13 @@
         <v>1516</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2760,13 +2837,13 @@
         <v>11011</v>
       </c>
       <c r="D38" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="F38" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="39" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2774,13 +2851,13 @@
         <v>11012</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E39" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="40" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2788,13 +2865,13 @@
         <v>11021</v>
       </c>
       <c r="D40" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="F40" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="41" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2802,13 +2879,13 @@
         <v>11022</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E41" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F41" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="42" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2816,13 +2893,13 @@
         <v>11031</v>
       </c>
       <c r="D42" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="F42" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="43" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2830,13 +2907,13 @@
         <v>11032</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E43" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F43" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="44" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2844,13 +2921,13 @@
         <v>11041</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2858,13 +2935,13 @@
         <v>11042</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2872,188 +2949,253 @@
         <v>11043</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>122</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="7">
-        <v>12011</v>
+        <v>11051</v>
       </c>
       <c r="D47" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E47" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>117</v>
+      <c r="F47" s="8" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C48" s="7">
-        <v>12021</v>
+        <v>12011</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="7">
-        <v>12031</v>
+        <v>12021</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="7">
-        <v>13011</v>
+        <v>12031</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="7">
-        <v>13021</v>
+        <v>12051</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="7">
-        <v>13031</v>
+        <v>13011</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C53" s="7">
-        <v>14011</v>
+        <v>13021</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="7">
-        <v>14021</v>
+        <v>13031</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C55" s="7">
-        <v>14031</v>
+        <v>13051</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C56" s="7">
-        <v>15011</v>
+        <v>14011</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C57" s="7">
-        <v>15021</v>
+        <v>14021</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C58" s="7">
+        <v>14031</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C59" s="7">
+        <v>14051</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C60" s="7">
+        <v>15011</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C61" s="7">
+        <v>15021</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C62" s="7">
         <v>15031</v>
       </c>
-      <c r="D58" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="59" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="D62" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C63" s="7">
+        <v>15051</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
     <row r="64" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3061,6 +3203,10 @@
     <row r="68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="69" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/EquipSuitConfig.xlsx
+++ b/Excel/EquipSuitConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B93B51A-521D-45D6-8E4D-1DC999505B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997F036D-42AC-4CDC-9A6D-634C7B0DC89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-525" yWindow="945" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipSuitProto" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="167">
   <si>
     <t>套装名称</t>
   </si>
@@ -663,6 +663,24 @@
   </si>
   <si>
     <t>15501006;15502006;15503006;15504006;15505006;15511006;15511013</t>
+  </si>
+  <si>
+    <t>15601001;15602001;15603001;15604001;15605001;15611001;15611011</t>
+  </si>
+  <si>
+    <t>15601002;15602002;15603002;15604002;15605002;15611002;15611012</t>
+  </si>
+  <si>
+    <t>15601003;15602003;15603003;15604003;15605003;15611003;15611013</t>
+  </si>
+  <si>
+    <t>2,110611;4,110612;6,110613</t>
+  </si>
+  <si>
+    <t>2,110621;4,110622;6,110623</t>
+  </si>
+  <si>
+    <t>2,110631;4,110632;6,110633</t>
   </si>
 </sst>
 </file>
@@ -1822,7 +1840,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1858,10 +1876,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="49" borderId="12" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="154">
@@ -2323,10 +2338,10 @@
   <dimension ref="C1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H50" sqref="H50"/>
+      <selection pane="bottomRight" activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2839,7 +2854,7 @@
       <c r="D38" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="7" t="s">
         <v>100</v>
       </c>
       <c r="F38" s="7" t="s">
@@ -2853,7 +2868,7 @@
       <c r="D39" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="7" t="s">
         <v>102</v>
       </c>
       <c r="F39" s="8" t="s">
@@ -2867,7 +2882,7 @@
       <c r="D40" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="E40" s="7" t="s">
         <v>105</v>
       </c>
       <c r="F40" s="7" t="s">
@@ -2881,7 +2896,7 @@
       <c r="D41" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E41" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F41" s="8" t="s">
@@ -2895,7 +2910,7 @@
       <c r="D42" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="7" t="s">
         <v>110</v>
       </c>
       <c r="F42" s="7" t="s">
@@ -2909,7 +2924,7 @@
       <c r="D43" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="7" t="s">
         <v>112</v>
       </c>
       <c r="F43" s="8" t="s">
@@ -3021,7 +3036,7 @@
       <c r="D51" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E51" s="15" t="s">
+      <c r="E51" s="7" t="s">
         <v>125</v>
       </c>
       <c r="F51" s="8" t="s">
@@ -3077,7 +3092,7 @@
       <c r="D55" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E55" s="15" t="s">
+      <c r="E55" s="7" t="s">
         <v>127</v>
       </c>
       <c r="F55" s="8" t="s">
@@ -3133,7 +3148,7 @@
       <c r="D59" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E59" s="15" t="s">
+      <c r="E59" s="7" t="s">
         <v>128</v>
       </c>
       <c r="F59" s="8" t="s">
@@ -3189,24 +3204,63 @@
       <c r="D63" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E63" s="15" t="s">
+      <c r="E63" s="7" t="s">
         <v>129</v>
       </c>
       <c r="F63" s="8" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="64" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C64" s="7">
+        <v>16011</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C65" s="7">
+        <v>16021</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C66" s="7">
+        <v>16031</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/EquipSuitConfig.xlsx
+++ b/Excel/EquipSuitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13665"/>
+    <workbookView windowWidth="28080" windowHeight="14085"/>
   </bookViews>
   <sheets>
     <sheet name="EquipSuitProto" sheetId="1" r:id="rId1"/>
@@ -415,7 +415,7 @@
     <t>勇者套装</t>
   </si>
   <si>
-    <t>14060005;14100011;14100012</t>
+    <t>14060005;14100011;14100012;14100111;14100112</t>
   </si>
   <si>
     <t>2,200001</t>
@@ -451,7 +451,7 @@
     <t>恒心套装</t>
   </si>
   <si>
-    <t>15206003;15210011;15210012</t>
+    <t>15206003;15210011;15210012;15210111;15210112</t>
   </si>
   <si>
     <t>银月套装</t>
@@ -484,7 +484,7 @@
     <t>启示者套装</t>
   </si>
   <si>
-    <t>15306003;15310011;15310012</t>
+    <t>15306003;15310011;15310012;15310111;15310112</t>
   </si>
   <si>
     <t>命运套装</t>
@@ -514,7 +514,7 @@
     <t>毁灭者套装</t>
   </si>
   <si>
-    <t>15406003;15410011;15410012</t>
+    <t>15406003;15410011;15410012;15410111;15410112</t>
   </si>
   <si>
     <t>风灵套装</t>
@@ -547,7 +547,7 @@
     <t>王者力量套装</t>
   </si>
   <si>
-    <t>15506003;15510011;15510012</t>
+    <t>15506003;15510011;15510012;15510121;15510122</t>
   </si>
   <si>
     <t>15601001;15602001;15603001;15604001;15605001;15611001;15611011</t>
@@ -573,12 +573,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -591,13 +591,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -628,6 +621,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -639,19 +675,36 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,14 +717,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -685,8 +761,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -701,64 +794,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -774,89 +811,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -906,7 +868,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="74">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -939,409 +901,223 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1422,6 +1198,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1439,8 +1224,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thick">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1461,11 +1248,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1475,15 +1268,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1505,10 +1289,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1526,23 +1308,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1552,13 +1328,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1567,571 +1343,571 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="57" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="65" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="57" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="73" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="57" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="57" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="57" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="57" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="57" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="57" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2141,36 +1917,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2182,117 +1958,117 @@
     <cellStyle name="输入" xfId="4" builtinId="20"/>
     <cellStyle name="货币" xfId="5" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="计算 2" xfId="7"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
+    <cellStyle name="计算 2" xfId="8"/>
     <cellStyle name="差" xfId="9" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="11"/>
-    <cellStyle name="常规 2 3 2 3 2" xfId="12"/>
-    <cellStyle name="标题 5" xfId="13"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="14"/>
+    <cellStyle name="常规 2 3 2 3 2" xfId="11"/>
+    <cellStyle name="标题 5" xfId="12"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="13"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="14"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="15" builtinId="40"/>
     <cellStyle name="超链接" xfId="16" builtinId="8"/>
     <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="17"/>
     <cellStyle name="百分比" xfId="18" builtinId="5"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="19"/>
     <cellStyle name="已访问的超链接" xfId="20" builtinId="9"/>
-    <cellStyle name="常规 6" xfId="21"/>
-    <cellStyle name="注释" xfId="22" builtinId="10"/>
+    <cellStyle name="注释" xfId="21" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="22"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="23" builtinId="36"/>
     <cellStyle name="标题 4" xfId="24" builtinId="19"/>
     <cellStyle name="警告文本" xfId="25" builtinId="11"/>
-    <cellStyle name="常规 5 2" xfId="26"/>
-    <cellStyle name="标题" xfId="27" builtinId="15"/>
+    <cellStyle name="标题" xfId="26" builtinId="15"/>
+    <cellStyle name="常规 5 2" xfId="27"/>
     <cellStyle name="解释性文本" xfId="28" builtinId="53"/>
     <cellStyle name="标题 1" xfId="29" builtinId="16"/>
-    <cellStyle name="常规 5 2 2" xfId="30"/>
-    <cellStyle name="标题 2" xfId="31" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="32" builtinId="32"/>
+    <cellStyle name="标题 2" xfId="30" builtinId="17"/>
+    <cellStyle name="常规 5 2 2" xfId="31"/>
+    <cellStyle name="标题 3" xfId="32" builtinId="18"/>
     <cellStyle name="常规 5 2 3" xfId="33"/>
-    <cellStyle name="标题 3" xfId="34" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="34" builtinId="32"/>
     <cellStyle name="60% - 强调文字颜色 4" xfId="35" builtinId="44"/>
     <cellStyle name="输出" xfId="36" builtinId="21"/>
     <cellStyle name="计算" xfId="37" builtinId="22"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="38"/>
-    <cellStyle name="检查单元格" xfId="39" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="40" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="41" builtinId="33"/>
-    <cellStyle name="注释 2 3" xfId="42"/>
-    <cellStyle name="链接单元格" xfId="43" builtinId="24"/>
+    <cellStyle name="检查单元格" xfId="38" builtinId="23"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="39"/>
+    <cellStyle name="链接单元格" xfId="40" builtinId="24"/>
+    <cellStyle name="注释 2 3" xfId="41"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="42" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="43" builtinId="33"/>
     <cellStyle name="20% - 强调文字颜色 2 3" xfId="44"/>
     <cellStyle name="汇总" xfId="45" builtinId="25"/>
     <cellStyle name="好" xfId="46" builtinId="26"/>
-    <cellStyle name="常规 2 3 2 4" xfId="47"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="47"/>
     <cellStyle name="40% - 强调文字颜色 2 2" xfId="48"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="49"/>
+    <cellStyle name="常规 2 3 2 4" xfId="49"/>
     <cellStyle name="20% - 强调文字颜色 3 3" xfId="50"/>
     <cellStyle name="适中" xfId="51" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 1 4" xfId="52"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="53" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="54" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="55" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="56"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="57" builtinId="31"/>
-    <cellStyle name="输出 2" xfId="58"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="59" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="60" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="61" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="62" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="63"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="64" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="65" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="66" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="67" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="68" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="69" builtinId="49"/>
-    <cellStyle name="适中 2" xfId="70"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="71"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="72" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="73" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="52" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="53" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="54" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="55"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="56" builtinId="31"/>
+    <cellStyle name="输出 2" xfId="57"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="58" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="59" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="60" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="61" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="62" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="63" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="64" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="65" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="66" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="67" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="68"/>
+    <cellStyle name="适中 2" xfId="69"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="70" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="71" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 1 4" xfId="72"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="73"/>
     <cellStyle name="20% - 强调文字颜色 3 2" xfId="74"/>
-    <cellStyle name="常规 2 3 2 3" xfId="75"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="76"/>
-    <cellStyle name="常规 2 3 3 3" xfId="77"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="78"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="75"/>
+    <cellStyle name="常规 2 3 2 3" xfId="76"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="77"/>
+    <cellStyle name="常规 2 3 3 3" xfId="78"/>
     <cellStyle name="20% - 强调文字颜色 2 2" xfId="79"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="80"/>
     <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="81"/>
     <cellStyle name="20% - 强调文字颜色 2 4" xfId="82"/>
     <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="83"/>
     <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="84"/>
-    <cellStyle name="60% - 强调文字颜色 1 2" xfId="85"/>
-    <cellStyle name="20% - 强调文字颜色 3 4" xfId="86"/>
-    <cellStyle name="常规 3" xfId="87"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="88"/>
-    <cellStyle name="常规 3 2" xfId="89"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="90"/>
+    <cellStyle name="20% - 强调文字颜色 3 4" xfId="85"/>
+    <cellStyle name="60% - 强调文字颜色 1 2" xfId="86"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="87"/>
+    <cellStyle name="常规 3" xfId="88"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="89"/>
+    <cellStyle name="常规 3 2" xfId="90"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="91"/>
     <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="92"/>
-    <cellStyle name="常规 4" xfId="93"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="94"/>
-    <cellStyle name="常规 4 2" xfId="95"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="96"/>
-    <cellStyle name="常规 5" xfId="97"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="93"/>
+    <cellStyle name="常规 4" xfId="94"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="95"/>
+    <cellStyle name="常规 4 2" xfId="96"/>
+    <cellStyle name="20% - 强调文字颜色 4 4" xfId="97"/>
     <cellStyle name="60% - 强调文字颜色 2 2" xfId="98"/>
-    <cellStyle name="20% - 强调文字颜色 4 4" xfId="99"/>
+    <cellStyle name="常规 5" xfId="99"/>
     <cellStyle name="20% - 强调文字颜色 5 2" xfId="100"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="101"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="102"/>
     <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="103"/>
     <cellStyle name="20% - 强调文字颜色 5 3" xfId="104"/>
     <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="105"/>
-    <cellStyle name="60% - 强调文字颜色 3 2" xfId="106"/>
-    <cellStyle name="20% - 强调文字颜色 5 4" xfId="107"/>
+    <cellStyle name="20% - 强调文字颜色 5 4" xfId="106"/>
+    <cellStyle name="60% - 强调文字颜色 3 2" xfId="107"/>
     <cellStyle name="20% - 强调文字颜色 6 2" xfId="108"/>
-    <cellStyle name="40% - 强调文字颜色 4 4" xfId="109"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="110"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="109"/>
+    <cellStyle name="40% - 强调文字颜色 4 4" xfId="110"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="111"/>
     <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="112"/>
     <cellStyle name="20% - 强调文字颜色 6 3" xfId="113"/>
-    <cellStyle name="40% - 强调文字颜色 5 4" xfId="114"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="115"/>
-    <cellStyle name="60% - 强调文字颜色 4 2" xfId="116"/>
-    <cellStyle name="20% - 强调文字颜色 6 4" xfId="117"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="114"/>
+    <cellStyle name="40% - 强调文字颜色 5 4" xfId="115"/>
+    <cellStyle name="20% - 强调文字颜色 6 4" xfId="116"/>
+    <cellStyle name="60% - 强调文字颜色 4 2" xfId="117"/>
     <cellStyle name="40% - 强调文字颜色 1 2" xfId="118"/>
     <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="119"/>
     <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="120"/>
@@ -2313,8 +2089,8 @@
     <cellStyle name="40% - 强调文字颜色 3 3" xfId="135"/>
     <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="136"/>
     <cellStyle name="40% - 强调文字颜色 3 4" xfId="137"/>
-    <cellStyle name="检查单元格 2" xfId="138"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="139"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="138"/>
+    <cellStyle name="检查单元格 2" xfId="139"/>
     <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="140"/>
     <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="141"/>
     <cellStyle name="40% - 强调文字颜色 4 3" xfId="142"/>
@@ -2334,8 +2110,8 @@
     <cellStyle name="60% - 强调文字颜色 5 2" xfId="156"/>
     <cellStyle name="60% - 强调文字颜色 6 2" xfId="157"/>
     <cellStyle name="标题 1 2" xfId="158"/>
-    <cellStyle name="常规 5 2 2 2" xfId="159"/>
-    <cellStyle name="标题 2 2" xfId="160"/>
+    <cellStyle name="标题 2 2" xfId="159"/>
+    <cellStyle name="常规 5 2 2 2" xfId="160"/>
     <cellStyle name="标题 3 2" xfId="161"/>
     <cellStyle name="标题 4 2" xfId="162"/>
     <cellStyle name="差 2" xfId="163"/>
@@ -2362,8 +2138,8 @@
     <cellStyle name="汇总 2" xfId="184"/>
     <cellStyle name="解释性文本 2" xfId="185"/>
     <cellStyle name="警告文本 2" xfId="186"/>
-    <cellStyle name="注释 2 3 2" xfId="187"/>
-    <cellStyle name="链接单元格 2" xfId="188"/>
+    <cellStyle name="链接单元格 2" xfId="187"/>
+    <cellStyle name="注释 2 3 2" xfId="188"/>
     <cellStyle name="强调文字颜色 1 2" xfId="189"/>
     <cellStyle name="强调文字颜色 2 2" xfId="190"/>
     <cellStyle name="强调文字颜色 3 2" xfId="191"/>
@@ -2676,7 +2452,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G56" sqref="G56"/>
+      <selection pane="bottomRight" activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/Excel/EquipSuitConfig.xlsx
+++ b/Excel/EquipSuitConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A29330F-206B-43B2-AD1D-65F8ADB4B45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14085"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipSuitProto" sheetId="1" r:id="rId1"/>
@@ -14,18 +20,19 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">作者:
@@ -36,6 +43,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>件数,触发套装属性</t>
@@ -47,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="173">
   <si>
     <t>Id</t>
   </si>
@@ -547,9 +555,6 @@
     <t>王者力量套装</t>
   </si>
   <si>
-    <t>15506003;15510011;15510012;15510121;15510122</t>
-  </si>
-  <si>
     <t>15601001;15602001;15603001;15604001;15605001;15611001;15611011</t>
   </si>
   <si>
@@ -566,19 +571,17 @@
   </si>
   <si>
     <t>2,160131;4,160132;6,160133</t>
+  </si>
+  <si>
+    <t>15506003;15510011;15510012;15510111;15510112</t>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="39">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -590,6 +593,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -597,19 +601,22 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0" tint="-0.349986266670736"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -617,28 +624,15 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -646,13 +640,76 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -660,29 +717,15 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -691,112 +734,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -805,44 +743,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -850,6 +751,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -857,6 +759,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -864,6 +767,29 @@
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -889,19 +815,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14993743705557422"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,19 +839,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,7 +869,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,49 +881,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79992065187536243"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79992065187536243"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1009,7 +935,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1021,19 +947,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.79992065187536243"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79992065187536243"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,7 +971,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,7 +983,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,13 +1013,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,24 +1031,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1190,7 +1116,7 @@
         <color theme="1" tint="0.499984740745262"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom style="hair">
         <color theme="1" tint="0.499984740745262"/>
@@ -1263,15 +1189,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1291,16 +1208,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1323,601 +1231,456 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="202">
+  <cellStyleXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1940,221 +1703,179 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="202">
+  <cellStyles count="154">
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="16" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 4" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="15" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 4" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 4" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 4" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 4" xfId="58" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="63" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="64" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="65" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 4" xfId="68" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="73" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="74" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="75" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 4" xfId="76" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="77" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="80" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 4" xfId="82" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="86" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="87" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 4" xfId="89" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="90" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="92" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="93" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="94" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 4" xfId="62" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="96" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 4" xfId="67" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="104" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="105" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="106" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 4" xfId="107" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="60% - 强调文字颜色 1 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="60% - 强调文字颜色 2 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="60% - 强调文字颜色 3 2" xfId="59" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="60% - 强调文字颜色 4 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="60% - 强调文字颜色 5 2" xfId="108" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="60% - 强调文字颜色 6 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="标题 1 2" xfId="110" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="标题 2 2" xfId="111" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="标题 3 2" xfId="113" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="标题 4 2" xfId="114" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="标题 5" xfId="4" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="差 2" xfId="115" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="货币" xfId="5" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="计算 2" xfId="8"/>
-    <cellStyle name="差" xfId="9" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
-    <cellStyle name="常规 2 3 2 3 2" xfId="11"/>
-    <cellStyle name="标题 5" xfId="12"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="13"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="14"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="15" builtinId="40"/>
-    <cellStyle name="超链接" xfId="16" builtinId="8"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="17"/>
-    <cellStyle name="百分比" xfId="18" builtinId="5"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="19"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9"/>
-    <cellStyle name="注释" xfId="21" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="22"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="23" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="24" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="25" builtinId="11"/>
-    <cellStyle name="标题" xfId="26" builtinId="15"/>
-    <cellStyle name="常规 5 2" xfId="27"/>
-    <cellStyle name="解释性文本" xfId="28" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="29" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="30" builtinId="17"/>
-    <cellStyle name="常规 5 2 2" xfId="31"/>
-    <cellStyle name="标题 3" xfId="32" builtinId="18"/>
-    <cellStyle name="常规 5 2 3" xfId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="34" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="35" builtinId="44"/>
-    <cellStyle name="输出" xfId="36" builtinId="21"/>
-    <cellStyle name="计算" xfId="37" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="38" builtinId="23"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="39"/>
-    <cellStyle name="链接单元格" xfId="40" builtinId="24"/>
-    <cellStyle name="注释 2 3" xfId="41"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="42" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="43" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="44"/>
-    <cellStyle name="汇总" xfId="45" builtinId="25"/>
-    <cellStyle name="好" xfId="46" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="47"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="48"/>
-    <cellStyle name="常规 2 3 2 4" xfId="49"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="50"/>
-    <cellStyle name="适中" xfId="51" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="52" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="53" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="54" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="55"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="56" builtinId="31"/>
-    <cellStyle name="输出 2" xfId="57"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="58" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="59" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="60" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="61" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="62" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="63" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="64" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="65" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="66" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="67" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="68"/>
-    <cellStyle name="适中 2" xfId="69"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="70" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="71" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 1 4" xfId="72"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="73"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="74"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="75"/>
-    <cellStyle name="常规 2 3 2 3" xfId="76"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="77"/>
-    <cellStyle name="常规 2 3 3 3" xfId="78"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="79"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="80"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="81"/>
-    <cellStyle name="20% - 强调文字颜色 2 4" xfId="82"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="83"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="84"/>
-    <cellStyle name="20% - 强调文字颜色 3 4" xfId="85"/>
-    <cellStyle name="60% - 强调文字颜色 1 2" xfId="86"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="87"/>
-    <cellStyle name="常规 3" xfId="88"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="89"/>
-    <cellStyle name="常规 3 2" xfId="90"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="91"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="92"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="93"/>
-    <cellStyle name="常规 4" xfId="94"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="95"/>
-    <cellStyle name="常规 4 2" xfId="96"/>
-    <cellStyle name="20% - 强调文字颜色 4 4" xfId="97"/>
-    <cellStyle name="60% - 强调文字颜色 2 2" xfId="98"/>
-    <cellStyle name="常规 5" xfId="99"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="100"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="101"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="102"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="103"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="104"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="105"/>
-    <cellStyle name="20% - 强调文字颜色 5 4" xfId="106"/>
-    <cellStyle name="60% - 强调文字颜色 3 2" xfId="107"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="108"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="109"/>
-    <cellStyle name="40% - 强调文字颜色 4 4" xfId="110"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="111"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="112"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="113"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="114"/>
-    <cellStyle name="40% - 强调文字颜色 5 4" xfId="115"/>
-    <cellStyle name="20% - 强调文字颜色 6 4" xfId="116"/>
-    <cellStyle name="60% - 强调文字颜色 4 2" xfId="117"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="118"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="119"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="120"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="121"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="122"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="123"/>
-    <cellStyle name="40% - 强调文字颜色 1 4" xfId="124"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="125"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="126"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="127"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="128"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="129"/>
-    <cellStyle name="40% - 强调文字颜色 2 4" xfId="130"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="131"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="132"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="133"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="134"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="135"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="136"/>
-    <cellStyle name="40% - 强调文字颜色 3 4" xfId="137"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="138"/>
-    <cellStyle name="检查单元格 2" xfId="139"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="140"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="141"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="142"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="143"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="144"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="145"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="146"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="147"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="148"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="149"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="150"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="151"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="152"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="153"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="154"/>
-    <cellStyle name="40% - 强调文字颜色 6 4" xfId="155"/>
-    <cellStyle name="60% - 强调文字颜色 5 2" xfId="156"/>
-    <cellStyle name="60% - 强调文字颜色 6 2" xfId="157"/>
-    <cellStyle name="标题 1 2" xfId="158"/>
-    <cellStyle name="标题 2 2" xfId="159"/>
-    <cellStyle name="常规 5 2 2 2" xfId="160"/>
-    <cellStyle name="标题 3 2" xfId="161"/>
-    <cellStyle name="标题 4 2" xfId="162"/>
-    <cellStyle name="差 2" xfId="163"/>
-    <cellStyle name="常规 2" xfId="164"/>
-    <cellStyle name="常规 2 2" xfId="165"/>
-    <cellStyle name="常规 2 2 2" xfId="166"/>
-    <cellStyle name="常规 2 3" xfId="167"/>
-    <cellStyle name="常规 2 3 2" xfId="168"/>
-    <cellStyle name="常规 2 3 2 2" xfId="169"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="170"/>
-    <cellStyle name="常规 2 3 2 2 2 2" xfId="171"/>
-    <cellStyle name="常规 2 3 2 2 3" xfId="172"/>
-    <cellStyle name="常规 2 3 3" xfId="173"/>
-    <cellStyle name="常规 2 3 3 2" xfId="174"/>
-    <cellStyle name="常规 2 3 3 2 2" xfId="175"/>
-    <cellStyle name="常规 2 3 4" xfId="176"/>
-    <cellStyle name="常规 2 3 4 2" xfId="177"/>
-    <cellStyle name="常规 2 3 5" xfId="178"/>
-    <cellStyle name="常规 2 4" xfId="179"/>
-    <cellStyle name="常规 5 3" xfId="180"/>
-    <cellStyle name="常规 5 3 2" xfId="181"/>
-    <cellStyle name="常规 5 4" xfId="182"/>
-    <cellStyle name="好 2" xfId="183"/>
-    <cellStyle name="汇总 2" xfId="184"/>
-    <cellStyle name="解释性文本 2" xfId="185"/>
-    <cellStyle name="警告文本 2" xfId="186"/>
-    <cellStyle name="链接单元格 2" xfId="187"/>
-    <cellStyle name="注释 2 3 2" xfId="188"/>
-    <cellStyle name="强调文字颜色 1 2" xfId="189"/>
-    <cellStyle name="强调文字颜色 2 2" xfId="190"/>
-    <cellStyle name="强调文字颜色 3 2" xfId="191"/>
-    <cellStyle name="强调文字颜色 4 2" xfId="192"/>
-    <cellStyle name="强调文字颜色 5 2" xfId="193"/>
-    <cellStyle name="强调文字颜色 6 2" xfId="194"/>
-    <cellStyle name="输入 2" xfId="195"/>
-    <cellStyle name="注释 2" xfId="196"/>
-    <cellStyle name="注释 2 2" xfId="197"/>
-    <cellStyle name="注释 2 2 2" xfId="198"/>
-    <cellStyle name="注释 2 2 2 2" xfId="199"/>
-    <cellStyle name="注释 2 2 3" xfId="200"/>
-    <cellStyle name="注释 2 4" xfId="201"/>
+    <cellStyle name="常规 2" xfId="116" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="常规 2 2" xfId="117" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="常规 2 2 2" xfId="118" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="常规 2 3" xfId="119" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="常规 2 3 2" xfId="120" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="常规 2 3 2 2" xfId="121" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="常规 2 3 2 2 2 2" xfId="123" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="常规 2 3 2 2 3" xfId="124" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="常规 2 3 2 3" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="常规 2 3 2 3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="常规 2 3 2 4" xfId="18" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 2 3 3" xfId="125" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="常规 2 3 3 2" xfId="126" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="常规 2 3 3 2 2" xfId="127" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="常规 2 3 3 3" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="常规 2 3 4" xfId="128" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="常规 2 3 4 2" xfId="129" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="常规 2 3 5" xfId="130" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="常规 2 4" xfId="131" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="常规 3" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="常规 3 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="常规 4" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="常规 4 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="常规 5" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="常规 5 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="常规 5 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="常规 5 2 2 2" xfId="112" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="常规 5 2 3" xfId="12" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="常规 5 3" xfId="132" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="常规 5 3 2" xfId="133" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="常规 5 4" xfId="134" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="常规 6" xfId="9" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="好 2" xfId="135" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="汇总 2" xfId="136" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="计算 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="检查单元格 2" xfId="91" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="解释性文本 2" xfId="137" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="警告文本 2" xfId="138" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="链接单元格 2" xfId="139" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="强调文字颜色 1 2" xfId="141" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="强调文字颜色 2 2" xfId="142" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="强调文字颜色 3 2" xfId="143" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="强调文字颜色 4 2" xfId="144" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="强调文字颜色 5 2" xfId="145" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="强调文字颜色 6 2" xfId="146" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="适中 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="输出 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="输入 2" xfId="147" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="注释 2" xfId="148" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="注释 2 2" xfId="149" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="注释 2 2 2" xfId="150" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="注释 2 2 2 2" xfId="151" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="注释 2 2 3" xfId="152" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="注释 2 3" xfId="14" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="注释 2 3 2" xfId="140" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="注释 2 4" xfId="153" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2439,23 +2160,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E40" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E48" sqref="E48"/>
+      <selection pane="bottomRight" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="9.125" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
@@ -2464,918 +2184,915 @@
     <col min="6" max="6" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25"/>
-    <row r="2" spans="4:4">
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C3" s="4" t="s">
+    <row r="1" spans="3:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C4" s="4" t="s">
+    <row r="4" spans="3:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C5" s="4" t="s">
+    <row r="5" spans="3:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C6" s="6">
+    <row r="6" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="5">
         <v>1001</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C7" s="6">
+    <row r="7" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C7" s="5">
         <v>1101</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C8" s="6">
+    <row r="8" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="5">
         <v>1102</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C9" s="6">
+    <row r="9" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C9" s="5">
         <v>1103</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C10" s="6">
+    <row r="10" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="5">
         <v>1104</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C11" s="6">
+    <row r="11" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="5">
         <v>1201</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C12" s="6">
+    <row r="12" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="5">
         <v>1202</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C13" s="6">
+    <row r="13" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="5">
         <v>1203</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C14" s="6">
+    <row r="14" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="5">
         <v>1204</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C15" s="7">
+    <row r="15" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="6">
         <v>1205</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C16" s="7">
+    <row r="16" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="6">
         <v>1301</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C17" s="7">
+    <row r="17" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="6">
         <v>1302</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C18" s="7">
+    <row r="18" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="6">
         <v>1303</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C19" s="7">
+    <row r="19" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="6">
         <v>1304</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C20" s="7">
+    <row r="20" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="6">
         <v>1305</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C21" s="7">
+    <row r="21" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="6">
         <v>1306</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C22" s="7">
+    <row r="22" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="6">
         <v>1401</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C23" s="7">
+    <row r="23" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="6">
         <v>1402</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C24" s="7">
+    <row r="24" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="6">
         <v>1403</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C25" s="7">
+    <row r="25" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="6">
         <v>1404</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C26" s="7">
+    <row r="26" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="6">
         <v>1405</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C27" s="7">
+    <row r="27" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="6">
         <v>1406</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C28" s="7">
+    <row r="28" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="6">
         <v>1501</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C29" s="7">
+    <row r="29" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C29" s="6">
         <v>1502</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="30" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C30" s="7">
+    <row r="30" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C30" s="6">
         <v>1503</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C31" s="7">
+    <row r="31" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C31" s="6">
         <v>1504</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="32" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C32" s="7">
+    <row r="32" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C32" s="6">
         <v>1505</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C33" s="7">
+    <row r="33" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C33" s="6">
         <v>1506</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C34" s="7">
+    <row r="34" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C34" s="6">
         <v>1513</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="35" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C35" s="7">
+    <row r="35" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C35" s="6">
         <v>1514</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="36" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C36" s="7">
+    <row r="36" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C36" s="6">
         <v>1515</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="37" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C37" s="7">
+    <row r="37" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C37" s="6">
         <v>1516</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C38" s="11">
+    <row r="38" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C38" s="10">
         <v>11011</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="39" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C39" s="11">
+    <row r="39" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C39" s="10">
         <v>11012</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F39" s="14" t="s">
+      <c r="F39" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="40" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C40" s="11">
+    <row r="40" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C40" s="10">
         <v>11021</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="F40" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="41" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C41" s="11">
+    <row r="41" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C41" s="10">
         <v>11022</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="F41" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="42" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C42" s="11">
+    <row r="42" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C42" s="10">
         <v>11031</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F42" s="10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="43" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C43" s="11">
+    <row r="43" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C43" s="10">
         <v>11032</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F43" s="14" t="s">
+      <c r="F43" s="12" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="44" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C44" s="11">
+    <row r="44" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C44" s="10">
         <v>11041</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="F44" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="45" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C45" s="11">
+    <row r="45" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C45" s="10">
         <v>11042</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="F45" s="10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="46" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C46" s="11">
+    <row r="46" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C46" s="10">
         <v>11043</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="F46" s="10" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="47" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C47" s="11">
+    <row r="47" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C47" s="10">
         <v>11051</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="E47" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F47" s="14" t="s">
+      <c r="F47" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="48" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C48" s="11">
+    <row r="48" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C48" s="10">
         <v>12011</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="49" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C49" s="11">
+    <row r="49" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C49" s="10">
         <v>12021</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F49" s="11" t="s">
+      <c r="F49" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="50" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C50" s="11">
+    <row r="50" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C50" s="10">
         <v>12031</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F50" s="11" t="s">
+      <c r="F50" s="10" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="51" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C51" s="11">
+    <row r="51" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C51" s="10">
         <v>12051</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="F51" s="14" t="s">
+      <c r="F51" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="52" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C52" s="11">
+    <row r="52" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C52" s="10">
         <v>13011</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F52" s="11" t="s">
+      <c r="F52" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="53" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C53" s="11">
+    <row r="53" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C53" s="10">
         <v>13021</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="F53" s="10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="54" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C54" s="11">
+    <row r="54" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C54" s="10">
         <v>13031</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="E54" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="F54" s="10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="55" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C55" s="11">
+    <row r="55" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C55" s="10">
         <v>13051</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="F55" s="14" t="s">
+      <c r="F55" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="56" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C56" s="11">
+    <row r="56" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C56" s="10">
         <v>14011</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E56" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="F56" s="11" t="s">
+      <c r="F56" s="10" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="57" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C57" s="11">
+    <row r="57" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C57" s="10">
         <v>14021</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F57" s="11" t="s">
+      <c r="F57" s="10" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="58" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C58" s="11">
+    <row r="58" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C58" s="10">
         <v>14031</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="E58" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F58" s="11" t="s">
+      <c r="F58" s="10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="59" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C59" s="11">
+    <row r="59" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C59" s="10">
         <v>14051</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F59" s="14" t="s">
+      <c r="F59" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="60" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C60" s="11">
+    <row r="60" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C60" s="10">
         <v>15011</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E60" s="11" t="s">
+      <c r="E60" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="F60" s="11" t="s">
+      <c r="F60" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="61" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C61" s="11">
+    <row r="61" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C61" s="10">
         <v>15021</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="F61" s="11" t="s">
+      <c r="F61" s="10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="62" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C62" s="11">
+    <row r="62" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C62" s="10">
         <v>15031</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="E62" s="11" t="s">
+      <c r="E62" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="F62" s="11" t="s">
+      <c r="F62" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="63" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C63" s="11">
+    <row r="63" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C63" s="10">
         <v>15051</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="E63" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C64" s="10">
+        <v>16011</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E64" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="F63" s="14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="64" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C64" s="11">
-        <v>16011</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="E64" s="11" t="s">
+      <c r="F64" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="F64" s="11" t="s">
+    </row>
+    <row r="65" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C65" s="10">
+        <v>16021</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E65" s="10" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="65" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C65" s="11">
-        <v>16021</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="E65" s="11" t="s">
+      <c r="F65" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="F65" s="11" t="s">
+    </row>
+    <row r="66" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C66" s="10">
+        <v>16031</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E66" s="10" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="66" ht="20.1" customHeight="1" spans="3:6">
-      <c r="C66" s="11">
-        <v>16031</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="E66" s="11" t="s">
+      <c r="F66" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="F66" s="11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="67" ht="20.1" customHeight="1"/>
-    <row r="68" ht="20.1" customHeight="1"/>
-    <row r="69" ht="20.1" customHeight="1"/>
-    <row r="70" ht="20.1" customHeight="1"/>
-    <row r="71" ht="20.1" customHeight="1"/>
-    <row r="72" ht="20.1" customHeight="1"/>
-    <row r="73" ht="20.1" customHeight="1"/>
-    <row r="74" ht="20.1" customHeight="1"/>
+    </row>
+    <row r="67" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="25" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/EquipSuitConfig.xlsx
+++ b/Excel/EquipSuitConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A29330F-206B-43B2-AD1D-65F8ADB4B45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFA1D36-8B27-484D-B61F-1566C48D77D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipSuitProto" sheetId="1" r:id="rId1"/>
@@ -573,7 +573,7 @@
     <t>2,160131;4,160132;6,160133</t>
   </si>
   <si>
-    <t>15506003;15510011;15510012;15510111;15510112</t>
+    <t>15506003;15510011;15510012;15510121;15510122</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>

--- a/Excel/EquipSuitConfig.xlsx
+++ b/Excel/EquipSuitConfig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFA1D36-8B27-484D-B61F-1566C48D77D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB0B07D-D523-4DF6-8314-D7AB3680F97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipSuitProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -2169,10 +2169,10 @@
   <dimension ref="C1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E63" sqref="E63"/>
+      <selection pane="bottomRight" activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/EquipSuitConfig.xlsx
+++ b/Excel/EquipSuitConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB0B07D-D523-4DF6-8314-D7AB3680F97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69CEFAF-1827-46B0-A06B-02C0A65D7B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -546,34 +546,38 @@
     <t>永恒套装</t>
   </si>
   <si>
+    <t>2,150131;4,150132;6,150133</t>
+  </si>
+  <si>
+    <t>王者力量套装</t>
+  </si>
+  <si>
+    <t>2,160111;4,160112;6,160113</t>
+  </si>
+  <si>
+    <t>2,160121;4,160122;6,160123</t>
+  </si>
+  <si>
+    <t>2,160131;4,160132;6,160133</t>
+  </si>
+  <si>
+    <t>15506003;15510011;15510012;15510121;15510122</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
     <t>15501006;15502006;15503006;15504006;15505006;15511006;15511013</t>
-  </si>
-  <si>
-    <t>2,150131;4,150132;6,150133</t>
-  </si>
-  <si>
-    <t>王者力量套装</t>
-  </si>
-  <si>
-    <t>15601001;15602001;15603001;15604001;15605001;15611001;15611011</t>
-  </si>
-  <si>
-    <t>2,160111;4,160112;6,160113</t>
-  </si>
-  <si>
-    <t>15601002;15602002;15603002;15604002;15605002;15611002;15611012</t>
-  </si>
-  <si>
-    <t>2,160121;4,160122;6,160123</t>
-  </si>
-  <si>
-    <t>15601003;15602003;15603003;15604003;15605003;15611003;15611013</t>
-  </si>
-  <si>
-    <t>2,160131;4,160132;6,160133</t>
-  </si>
-  <si>
-    <t>15506003;15510011;15510012;15510121;15510122</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>15601001;15602001;15603001;15604001;15605001;15611001</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>15601002;15602002;15603002;15604002;15605002;15611002</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>15601003;15602003;15603003;15604003;15605003;15611003</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -3019,10 +3023,10 @@
         <v>162</v>
       </c>
       <c r="E62" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="F62" s="10" t="s">
         <v>163</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="63" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3030,10 +3034,10 @@
         <v>15051</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F63" s="12" t="s">
         <v>123</v>
@@ -3047,10 +3051,10 @@
         <v>156</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3061,10 +3065,10 @@
         <v>159</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3075,10 +3079,10 @@
         <v>162</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Excel/EquipSuitConfig.xlsx
+++ b/Excel/EquipSuitConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69CEFAF-1827-46B0-A06B-02C0A65D7B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48206C14-158B-4391-BB7B-CCA937511997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="175">
   <si>
     <t>Id</t>
   </si>
@@ -578,6 +578,14 @@
   </si>
   <si>
     <t>15601003;15602003;15603003;15604003;15605003;15611003</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>15606001;15610001;15610002;15610101;15610102</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>炙热能量套装</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -2176,7 +2184,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E64" sqref="E64"/>
+      <selection pane="bottomRight" activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3085,7 +3093,20 @@
         <v>167</v>
       </c>
     </row>
-    <row r="67" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C67" s="10">
+        <v>16051</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
     <row r="68" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="69" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="70" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Excel/EquipSuitConfig.xlsx
+++ b/Excel/EquipSuitConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48206C14-158B-4391-BB7B-CCA937511997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F293E201-A5F8-40D2-9914-B835D5D9134F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipSuitProto" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="194">
   <si>
     <t>Id</t>
   </si>
@@ -587,6 +587,67 @@
   <si>
     <t>炙热能量套装</t>
     <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>16000101;16000102;16000103;16000104</t>
+  </si>
+  <si>
+    <t>16000105;16000106;16000107;16000108</t>
+  </si>
+  <si>
+    <t>16000109;16000110;16000111;16000112</t>
+  </si>
+  <si>
+    <t>生肖套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,300021;3,300022;4,300023</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,300031;3,300032;4,300033</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,300011;3,300012;4,300013</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,300211;3,300212;4,300213</t>
+  </si>
+  <si>
+    <t>2,300221;3,300222;4,300223</t>
+  </si>
+  <si>
+    <t>2,300231;3,300232;4,300233</t>
+  </si>
+  <si>
+    <t>2,300111;3,300112;4,300113</t>
+  </si>
+  <si>
+    <t>2,300121;3,300122;4,300123</t>
+  </si>
+  <si>
+    <t>2,300131;3,300132;4,300133</t>
+  </si>
+  <si>
+    <t>16000201;16000202;16000203;16000204</t>
+  </si>
+  <si>
+    <t>16000205;16000206;16000207;16000208</t>
+  </si>
+  <si>
+    <t>16000209;16000210;16000211;16000212</t>
+  </si>
+  <si>
+    <t>16000301;16000302;16000303;16000304</t>
+  </si>
+  <si>
+    <t>16000305;16000306;16000307;16000308</t>
+  </si>
+  <si>
+    <t>16000309;16000310;16000311;16000312</t>
   </si>
 </sst>
 </file>
@@ -806,7 +867,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1056,6 +1117,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79992065187536243"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14957121494186223"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1687,7 +1754,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1719,6 +1786,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2178,13 +2248,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:F74"/>
+  <dimension ref="C1:L76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C67" sqref="C67"/>
+      <selection pane="bottomRight" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2841,7 +2911,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="10">
         <v>12021</v>
       </c>
@@ -2855,7 +2925,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="10">
         <v>12031</v>
       </c>
@@ -2869,7 +2939,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="10">
         <v>12051</v>
       </c>
@@ -2883,7 +2953,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="10">
         <v>13011</v>
       </c>
@@ -2897,7 +2967,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C53" s="10">
         <v>13021</v>
       </c>
@@ -2911,7 +2981,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="54" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="10">
         <v>13031</v>
       </c>
@@ -2925,7 +2995,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C55" s="10">
         <v>13051</v>
       </c>
@@ -2939,7 +3009,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C56" s="10">
         <v>14011</v>
       </c>
@@ -2953,7 +3023,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="57" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C57" s="10">
         <v>14021</v>
       </c>
@@ -2967,7 +3037,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="58" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C58" s="10">
         <v>14031</v>
       </c>
@@ -2981,7 +3051,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="59" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="10">
         <v>14051</v>
       </c>
@@ -2995,7 +3065,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C60" s="10">
         <v>15011</v>
       </c>
@@ -3008,8 +3078,17 @@
       <c r="F60" s="10" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="61" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J60" s="13">
+        <v>16000101</v>
+      </c>
+      <c r="K60" s="13">
+        <v>16000105</v>
+      </c>
+      <c r="L60" s="13">
+        <v>16000109</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C61" s="10">
         <v>15021</v>
       </c>
@@ -3022,8 +3101,17 @@
       <c r="F61" s="10" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="62" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J61" s="13">
+        <v>16000102</v>
+      </c>
+      <c r="K61" s="13">
+        <v>16000106</v>
+      </c>
+      <c r="L61" s="13">
+        <v>16000110</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C62" s="10">
         <v>15031</v>
       </c>
@@ -3036,8 +3124,17 @@
       <c r="F62" s="10" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="63" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J62" s="13">
+        <v>16000103</v>
+      </c>
+      <c r="K62" s="13">
+        <v>16000107</v>
+      </c>
+      <c r="L62" s="13">
+        <v>16000111</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C63" s="10">
         <v>15051</v>
       </c>
@@ -3050,8 +3147,17 @@
       <c r="F63" s="12" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="64" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J63" s="13">
+        <v>16000104</v>
+      </c>
+      <c r="K63" s="13">
+        <v>16000108</v>
+      </c>
+      <c r="L63" s="13">
+        <v>16000112</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C64" s="10">
         <v>16011</v>
       </c>
@@ -3065,7 +3171,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="65" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C65" s="10">
         <v>16021</v>
       </c>
@@ -3078,8 +3184,20 @@
       <c r="F65" s="10" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="66" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J65" t="str">
+        <f>J60&amp;";"&amp;J61&amp;";"&amp;J62&amp;";"&amp;J63</f>
+        <v>16000101;16000102;16000103;16000104</v>
+      </c>
+      <c r="K65" t="str">
+        <f>K60&amp;";"&amp;K61&amp;";"&amp;K62&amp;";"&amp;K63</f>
+        <v>16000105;16000106;16000107;16000108</v>
+      </c>
+      <c r="L65" t="str">
+        <f>L60&amp;";"&amp;L61&amp;";"&amp;L62&amp;";"&amp;L63</f>
+        <v>16000109;16000110;16000111;16000112</v>
+      </c>
+    </row>
+    <row r="66" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C66" s="10">
         <v>16031</v>
       </c>
@@ -3093,7 +3211,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="67" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C67" s="10">
         <v>16051</v>
       </c>
@@ -3107,13 +3225,132 @@
         <v>123</v>
       </c>
     </row>
-    <row r="68" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C68" s="10">
+        <v>30001</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="69" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C69" s="10">
+        <v>30002</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="70" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C70" s="10">
+        <v>30003</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C71" s="10">
+        <v>30011</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="72" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C72" s="10">
+        <v>30012</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="73" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C73" s="10">
+        <v>30013</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C74" s="10">
+        <v>30021</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="75" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C75" s="10">
+        <v>30022</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="76" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C76" s="10">
+        <v>30023</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/EquipSuitConfig.xlsx
+++ b/Excel/EquipSuitConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F293E201-A5F8-40D2-9914-B835D5D9134F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDEFBB0-1843-4BCF-A137-FF92FF430E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipSuitProto" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="200">
   <si>
     <t>Id</t>
   </si>
@@ -648,6 +648,24 @@
   </si>
   <si>
     <t>16000309;16000310;16000311;16000312</t>
+  </si>
+  <si>
+    <t>15701001;15702001;15703001;15704001;15705001;15611001</t>
+  </si>
+  <si>
+    <t>15701002;15702002;15703002;15704002;15705002;15611002</t>
+  </si>
+  <si>
+    <t>15701003;15702003;15703003;15704003;15705003;15611003</t>
+  </si>
+  <si>
+    <t>2,170111;4,170112;6,170113</t>
+  </si>
+  <si>
+    <t>2,170121;4,170122;6,170123</t>
+  </si>
+  <si>
+    <t>2,170131;4,170132;6,170133</t>
   </si>
 </sst>
 </file>
@@ -2248,13 +2266,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:L76"/>
+  <dimension ref="C1:L79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F74" sqref="F74"/>
+      <selection pane="bottomRight" activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3227,127 +3245,181 @@
     </row>
     <row r="68" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C68" s="10">
-        <v>30001</v>
+        <v>17011</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C69" s="10">
-        <v>30002</v>
+        <v>17021</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>179</v>
+        <v>198</v>
+      </c>
+      <c r="J69" t="str">
+        <f>J64&amp;";"&amp;J65&amp;";"&amp;J66&amp;";"&amp;J67</f>
+        <v>;16000101;16000102;16000103;16000104;;</v>
+      </c>
+      <c r="K69" t="str">
+        <f>K64&amp;";"&amp;K65&amp;";"&amp;K66&amp;";"&amp;K67</f>
+        <v>;16000105;16000106;16000107;16000108;;</v>
+      </c>
+      <c r="L69" t="str">
+        <f>L64&amp;";"&amp;L65&amp;";"&amp;L66&amp;";"&amp;L67</f>
+        <v>;16000109;16000110;16000111;16000112;;</v>
       </c>
     </row>
     <row r="70" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C70" s="10">
-        <v>30003</v>
+        <v>17031</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C71" s="10">
-        <v>30011</v>
+        <v>30001</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>178</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C72" s="10">
-        <v>30012</v>
+        <v>30002</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>178</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C73" s="10">
-        <v>30013</v>
+        <v>30003</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>178</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C74" s="10">
-        <v>30021</v>
+        <v>30011</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>178</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="75" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C75" s="10">
-        <v>30022</v>
+        <v>30012</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>178</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C76" s="10">
-        <v>30023</v>
+        <v>30013</v>
       </c>
       <c r="D76" s="10" t="s">
         <v>178</v>
       </c>
       <c r="E76" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C77" s="10">
+        <v>30021</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="78" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C78" s="10">
+        <v>30022</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="79" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C79" s="10">
+        <v>30023</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E79" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="F76" s="10" t="s">
+      <c r="F79" s="10" t="s">
         <v>184</v>
       </c>
     </row>

--- a/Excel/EquipSuitConfig.xlsx
+++ b/Excel/EquipSuitConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDEFBB0-1843-4BCF-A137-FF92FF430E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1975D45-7C69-46A0-9B94-473C3A5BC859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipSuitProto" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="200">
   <si>
     <t>Id</t>
   </si>
@@ -653,19 +653,21 @@
     <t>15701001;15702001;15703001;15704001;15705001;15611001</t>
   </si>
   <si>
+    <t>2,170111;4,170112;6,170113</t>
+  </si>
+  <si>
+    <t>2,170121;4,170122;6,170123</t>
+  </si>
+  <si>
+    <t>2,170131;4,170132;6,170133</t>
+  </si>
+  <si>
     <t>15701002;15702002;15703002;15704002;15705002;15611002</t>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>15701003;15702003;15703003;15704003;15705003;15611003</t>
-  </si>
-  <si>
-    <t>2,170111;4,170112;6,170113</t>
-  </si>
-  <si>
-    <t>2,170121;4,170122;6,170123</t>
-  </si>
-  <si>
-    <t>2,170131;4,170132;6,170133</t>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2266,13 +2268,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:L79"/>
+  <dimension ref="C1:L80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E69" sqref="E69"/>
+      <selection pane="bottomRight" activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3254,7 +3256,7 @@
         <v>194</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3265,10 +3267,10 @@
         <v>159</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J69" t="str">
         <f>J64&amp;";"&amp;J65&amp;";"&amp;J66&amp;";"&amp;J67</f>
@@ -3291,135 +3293,149 @@
         <v>162</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C71" s="10">
-        <v>30001</v>
+        <v>17051</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="F71" s="10" t="s">
-        <v>181</v>
+        <v>173</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C72" s="10">
-        <v>30002</v>
+        <v>30001</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>178</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="73" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C73" s="10">
-        <v>30003</v>
+        <v>30002</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>178</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="74" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C74" s="10">
-        <v>30011</v>
+        <v>30003</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>178</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C75" s="10">
-        <v>30012</v>
+        <v>30011</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>178</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C76" s="10">
-        <v>30013</v>
+        <v>30012</v>
       </c>
       <c r="D76" s="10" t="s">
         <v>178</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C77" s="10">
-        <v>30021</v>
+        <v>30013</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>178</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C78" s="10">
-        <v>30022</v>
+        <v>30021</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>178</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C79" s="10">
-        <v>30023</v>
+        <v>30022</v>
       </c>
       <c r="D79" s="10" t="s">
         <v>178</v>
       </c>
       <c r="E79" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="80" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C80" s="10">
+        <v>30023</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E80" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="F79" s="10" t="s">
+      <c r="F80" s="10" t="s">
         <v>184</v>
       </c>
     </row>

--- a/Excel/EquipSuitConfig.xlsx
+++ b/Excel/EquipSuitConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1975D45-7C69-46A0-9B94-473C3A5BC859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85C5130-C48D-4A73-8E84-1A0E7CAC4112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="205">
   <si>
     <t>Id</t>
   </si>
@@ -650,9 +650,6 @@
     <t>16000309;16000310;16000311;16000312</t>
   </si>
   <si>
-    <t>15701001;15702001;15703001;15704001;15705001;15611001</t>
-  </si>
-  <si>
     <t>2,170111;4,170112;6,170113</t>
   </si>
   <si>
@@ -662,11 +659,34 @@
     <t>2,170131;4,170132;6,170133</t>
   </si>
   <si>
-    <t>15701002;15702002;15703002;15704002;15705002;15611002</t>
+    <t>15701003;15702003;15703003;15704003;15705003;15711003</t>
+  </si>
+  <si>
+    <t>15701002;15702002;15703002;15704002;15705002;15711002</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>15701003;15702003;15703003;15704003;15705003;15611003</t>
+    <t>15701001;15702001;15703001;15704001;15705001;15711001</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭祀套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻影套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>15706001;15710001;15710002;15710101;15710102</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>支配套装</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -2274,7 +2294,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F65" sqref="F65"/>
+      <selection pane="bottomRight" activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3250,13 +3270,13 @@
         <v>17011</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="E68" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="F68" s="10" t="s">
         <v>194</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="69" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3264,13 +3284,13 @@
         <v>17021</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>198</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J69" t="str">
         <f>J64&amp;";"&amp;J65&amp;";"&amp;J66&amp;";"&amp;J67</f>
@@ -3290,13 +3310,13 @@
         <v>17031</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="71" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3304,10 +3324,10 @@
         <v>17051</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="F71" s="12" t="s">
         <v>123</v>

--- a/Excel/EquipSuitConfig.xlsx
+++ b/Excel/EquipSuitConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85C5130-C48D-4A73-8E84-1A0E7CAC4112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88CB864-6579-45DE-BEEA-14F265005731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipSuitProto" sheetId="1" r:id="rId1"/>
@@ -2294,7 +2294,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E69" sqref="E69"/>
+      <selection pane="bottomRight" activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/EquipSuitConfig.xlsx
+++ b/Excel/EquipSuitConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88CB864-6579-45DE-BEEA-14F265005731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02F8F9D-54C8-48C4-9941-A31374101166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipSuitProto" sheetId="1" r:id="rId1"/>
@@ -50,12 +50,44 @@
         </r>
       </text>
     </comment>
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{A4170055-5C24-4556-BD1E-785ADA702D1F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+0 默认
+1 时装</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{FA036F54-AE11-4F50-BFFE-9907D04E4BB8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+0 默认
+1 时装</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="214">
   <si>
     <t>Id</t>
   </si>
@@ -70,9 +102,6 @@
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>NeedEquipID</t>
   </si>
   <si>
     <t>SuitPropertyID</t>
@@ -687,6 +716,46 @@
   </si>
   <si>
     <t>支配套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedEquipID</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>套装类型</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>SuitType</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>Occ</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕布套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>司马套装</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010001;10010002;10010003</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>20010001</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -907,7 +976,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1163,6 +1232,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14957121494186223"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14893032624286631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1794,7 +1869,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1829,6 +1904,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="43" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="44" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2288,13 +2381,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:L80"/>
+  <dimension ref="C1:L82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E67" sqref="E67"/>
+      <selection pane="bottomRight" activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2304,10 +2397,15 @@
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="68.875" customWidth="1"/>
     <col min="6" max="6" width="28.5" customWidth="1"/>
+    <col min="7" max="7" width="28.5" style="17" customWidth="1"/>
+    <col min="8" max="8" width="20.625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:8" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G1" s="16"/>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="3" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2320,8 +2418,14 @@
       <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="3:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2329,795 +2433,862 @@
         <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="3:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="5">
         <v>1001</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="5">
         <v>1101</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="5">
         <v>1102</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="5">
         <v>1103</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="5">
         <v>1104</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="5">
         <v>1201</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="5">
         <v>1202</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="5">
         <v>1203</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="5">
         <v>1204</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="6">
         <v>1205</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="6">
         <v>1301</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="6">
         <v>1302</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="6">
         <v>1303</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="6">
         <v>1304</v>
       </c>
       <c r="D19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="6">
         <v>1305</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="6">
         <v>1306</v>
       </c>
       <c r="D21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="6">
         <v>1401</v>
       </c>
       <c r="D22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="6">
         <v>1402</v>
       </c>
       <c r="D23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="6">
         <v>1403</v>
       </c>
       <c r="D24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="F24" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="6">
         <v>1404</v>
       </c>
       <c r="D25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="6">
         <v>1405</v>
       </c>
       <c r="D26" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="F26" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="6">
         <v>1406</v>
       </c>
       <c r="D27" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="6">
         <v>1501</v>
       </c>
       <c r="D28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="F28" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="6">
         <v>1502</v>
       </c>
       <c r="D29" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="F29" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="6">
         <v>1503</v>
       </c>
       <c r="D30" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="F30" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="6">
         <v>1504</v>
       </c>
       <c r="D31" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="F31" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="6">
         <v>1505</v>
       </c>
       <c r="D32" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="F32" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="6">
         <v>1506</v>
       </c>
       <c r="D33" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="F33" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="6">
         <v>1513</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E34" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="6">
         <v>1514</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E35" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="6">
         <v>1515</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E36" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="6">
         <v>1516</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E37" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="10">
         <v>11011</v>
       </c>
       <c r="D38" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="F38" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F38" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C39" s="10">
         <v>11012</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E39" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F39" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="10">
         <v>11021</v>
       </c>
       <c r="D40" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="F40" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F40" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="10">
         <v>11022</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E41" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="F41" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="10">
         <v>11031</v>
       </c>
       <c r="D42" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="F42" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F42" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="10">
         <v>11032</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E43" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F43" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F43" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G43" s="12"/>
+    </row>
+    <row r="44" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="10">
         <v>11041</v>
       </c>
       <c r="D44" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="F44" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F44" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="10">
         <v>11042</v>
       </c>
       <c r="D45" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E45" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="F45" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="F45" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="10">
         <v>11043</v>
       </c>
       <c r="D46" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="F46" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F46" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="10">
         <v>11051</v>
       </c>
       <c r="D47" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E47" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="F47" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="F47" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="48" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G47" s="12"/>
+    </row>
+    <row r="48" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C48" s="10">
         <v>12011</v>
       </c>
       <c r="D48" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E48" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="F48" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="F48" s="10" t="s">
-        <v>126</v>
-      </c>
+      <c r="G48" s="10"/>
     </row>
     <row r="49" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="10">
         <v>12021</v>
       </c>
       <c r="D49" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E49" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="F49" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F49" s="10" t="s">
-        <v>129</v>
-      </c>
+      <c r="G49" s="10"/>
     </row>
     <row r="50" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="10">
         <v>12031</v>
       </c>
       <c r="D50" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E50" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="F50" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F50" s="10" t="s">
-        <v>132</v>
-      </c>
+      <c r="G50" s="10"/>
     </row>
     <row r="51" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="10">
         <v>12051</v>
       </c>
       <c r="D51" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E51" s="10" t="s">
-        <v>134</v>
-      </c>
       <c r="F51" s="12" t="s">
-        <v>123</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G51" s="12"/>
     </row>
     <row r="52" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="10">
         <v>13011</v>
       </c>
       <c r="D52" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E52" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="F52" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F52" s="10" t="s">
-        <v>137</v>
-      </c>
+      <c r="G52" s="10"/>
     </row>
     <row r="53" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C53" s="10">
         <v>13021</v>
       </c>
       <c r="D53" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E53" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="F53" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="F53" s="10" t="s">
-        <v>140</v>
-      </c>
+      <c r="G53" s="10"/>
     </row>
     <row r="54" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="10">
         <v>13031</v>
       </c>
       <c r="D54" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E54" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="F54" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="F54" s="10" t="s">
-        <v>143</v>
-      </c>
+      <c r="G54" s="10"/>
     </row>
     <row r="55" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C55" s="10">
         <v>13051</v>
       </c>
       <c r="D55" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E55" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="E55" s="10" t="s">
-        <v>145</v>
-      </c>
       <c r="F55" s="12" t="s">
-        <v>123</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G55" s="12"/>
     </row>
     <row r="56" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C56" s="10">
         <v>14011</v>
       </c>
       <c r="D56" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E56" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="F56" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="F56" s="10" t="s">
-        <v>148</v>
-      </c>
+      <c r="G56" s="10"/>
     </row>
     <row r="57" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C57" s="10">
         <v>14021</v>
       </c>
       <c r="D57" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E57" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="F57" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F57" s="10" t="s">
-        <v>151</v>
-      </c>
+      <c r="G57" s="10"/>
     </row>
     <row r="58" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C58" s="10">
         <v>14031</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E58" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F58" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F58" s="10" t="s">
-        <v>153</v>
-      </c>
+      <c r="G58" s="10"/>
     </row>
     <row r="59" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="10">
         <v>14051</v>
       </c>
       <c r="D59" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E59" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="E59" s="10" t="s">
-        <v>155</v>
-      </c>
       <c r="F59" s="12" t="s">
-        <v>123</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G59" s="12"/>
     </row>
     <row r="60" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C60" s="10">
         <v>15011</v>
       </c>
       <c r="D60" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E60" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="F60" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="F60" s="10" t="s">
-        <v>158</v>
-      </c>
+      <c r="G60" s="10"/>
       <c r="J60" s="13">
         <v>16000101</v>
       </c>
@@ -3133,14 +3304,15 @@
         <v>15021</v>
       </c>
       <c r="D61" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E61" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="F61" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="F61" s="10" t="s">
-        <v>161</v>
-      </c>
+      <c r="G61" s="10"/>
       <c r="J61" s="13">
         <v>16000102</v>
       </c>
@@ -3156,14 +3328,15 @@
         <v>15031</v>
       </c>
       <c r="D62" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="F62" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="E62" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>163</v>
-      </c>
+      <c r="G62" s="10"/>
       <c r="J62" s="13">
         <v>16000103</v>
       </c>
@@ -3179,14 +3352,15 @@
         <v>15051</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>123</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G63" s="12"/>
       <c r="J63" s="13">
         <v>16000104</v>
       </c>
@@ -3202,28 +3376,30 @@
         <v>16011</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>165</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G64" s="10"/>
     </row>
     <row r="65" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C65" s="10">
         <v>16021</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>166</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G65" s="10"/>
       <c r="J65" t="str">
         <f>J60&amp;";"&amp;J61&amp;";"&amp;J62&amp;";"&amp;J63</f>
         <v>16000101;16000102;16000103;16000104</v>
@@ -3242,56 +3418,60 @@
         <v>16031</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>167</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G66" s="10"/>
     </row>
     <row r="67" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C67" s="10">
         <v>16051</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>123</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G67" s="12"/>
     </row>
     <row r="68" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C68" s="10">
         <v>17011</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>194</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="G68" s="10"/>
     </row>
     <row r="69" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C69" s="10">
         <v>17021</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>195</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G69" s="10"/>
       <c r="J69" t="str">
         <f>J64&amp;";"&amp;J65&amp;";"&amp;J66&amp;";"&amp;J67</f>
         <v>;16000101;16000102;16000103;16000104;;</v>
@@ -3310,153 +3490,204 @@
         <v>17031</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>196</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G70" s="10"/>
     </row>
     <row r="71" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C71" s="10">
         <v>17051</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>123</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G71" s="12"/>
     </row>
     <row r="72" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C72" s="10">
         <v>30001</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>181</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G72" s="10"/>
     </row>
     <row r="73" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C73" s="10">
         <v>30002</v>
       </c>
       <c r="D73" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F73" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="E73" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>179</v>
-      </c>
+      <c r="G73" s="10"/>
     </row>
     <row r="74" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C74" s="10">
         <v>30003</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>180</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G74" s="10"/>
     </row>
     <row r="75" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C75" s="10">
         <v>30011</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>185</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G75" s="10"/>
     </row>
     <row r="76" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C76" s="10">
         <v>30012</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>186</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="G76" s="10"/>
     </row>
     <row r="77" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C77" s="10">
         <v>30013</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>187</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G77" s="10"/>
     </row>
     <row r="78" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C78" s="10">
         <v>30021</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>182</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="G78" s="10"/>
     </row>
     <row r="79" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C79" s="10">
         <v>30022</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>183</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G79" s="10"/>
     </row>
     <row r="80" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C80" s="10">
         <v>30023</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
+      </c>
+      <c r="G80" s="10"/>
+    </row>
+    <row r="81" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C81" s="10">
+        <v>40001</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="G81" s="10">
+        <v>1</v>
+      </c>
+      <c r="H81" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C82" s="10">
+        <v>40002</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="G82" s="10">
+        <v>1</v>
+      </c>
+      <c r="H82" s="19">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/EquipSuitConfig.xlsx
+++ b/Excel/EquipSuitConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02F8F9D-54C8-48C4-9941-A31374101166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7690649-12D4-4F38-908C-3D2B7553D8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="215">
   <si>
     <t>Id</t>
   </si>
@@ -378,9 +378,6 @@
   </si>
   <si>
     <t>迅影套装</t>
-  </si>
-  <si>
-    <t>14010003;14020003;14030003;14040003</t>
   </si>
   <si>
     <t>2,110111;4,110112</t>
@@ -756,6 +753,14 @@
   </si>
   <si>
     <t>20010001</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>14010003;14020003;14030003;14040003</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -2384,10 +2389,10 @@
   <dimension ref="C1:L82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H89" sqref="H89"/>
+      <selection pane="bottomRight" activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2419,10 +2424,10 @@
         <v>3</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2433,16 +2438,16 @@
         <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2453,16 +2458,16 @@
         <v>7</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2953,10 +2958,10 @@
         <v>96</v>
       </c>
       <c r="E38" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>97</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>98</v>
       </c>
       <c r="G38" s="10"/>
     </row>
@@ -2968,10 +2973,10 @@
         <v>96</v>
       </c>
       <c r="E39" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>100</v>
       </c>
       <c r="G39" s="12"/>
     </row>
@@ -2980,13 +2985,13 @@
         <v>11021</v>
       </c>
       <c r="D40" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="F40" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>103</v>
       </c>
       <c r="G40" s="10"/>
     </row>
@@ -2995,13 +3000,13 @@
         <v>11022</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E41" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F41" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>105</v>
       </c>
       <c r="G41" s="12"/>
     </row>
@@ -3010,13 +3015,13 @@
         <v>11031</v>
       </c>
       <c r="D42" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="F42" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="G42" s="10"/>
     </row>
@@ -3025,13 +3030,13 @@
         <v>11032</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E43" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" s="12" t="s">
         <v>109</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>110</v>
       </c>
       <c r="G43" s="12"/>
     </row>
@@ -3040,13 +3045,13 @@
         <v>11041</v>
       </c>
       <c r="D44" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="F44" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>113</v>
       </c>
       <c r="G44" s="10"/>
     </row>
@@ -3055,13 +3060,13 @@
         <v>11042</v>
       </c>
       <c r="D45" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="F45" s="10" t="s">
         <v>115</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>116</v>
       </c>
       <c r="G45" s="10"/>
     </row>
@@ -3070,13 +3075,13 @@
         <v>11043</v>
       </c>
       <c r="D46" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="F46" s="10" t="s">
         <v>118</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>119</v>
       </c>
       <c r="G46" s="10"/>
     </row>
@@ -3085,13 +3090,13 @@
         <v>11051</v>
       </c>
       <c r="D47" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E47" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="F47" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>122</v>
       </c>
       <c r="G47" s="12"/>
     </row>
@@ -3100,13 +3105,13 @@
         <v>12011</v>
       </c>
       <c r="D48" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="F48" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>125</v>
       </c>
       <c r="G48" s="10"/>
     </row>
@@ -3115,13 +3120,13 @@
         <v>12021</v>
       </c>
       <c r="D49" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="F49" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>128</v>
       </c>
       <c r="G49" s="10"/>
     </row>
@@ -3130,13 +3135,13 @@
         <v>12031</v>
       </c>
       <c r="D50" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E50" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="F50" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>131</v>
       </c>
       <c r="G50" s="10"/>
     </row>
@@ -3145,13 +3150,13 @@
         <v>12051</v>
       </c>
       <c r="D51" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E51" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E51" s="10" t="s">
-        <v>133</v>
-      </c>
       <c r="F51" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G51" s="12"/>
     </row>
@@ -3160,13 +3165,13 @@
         <v>13011</v>
       </c>
       <c r="D52" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E52" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="F52" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>136</v>
       </c>
       <c r="G52" s="10"/>
     </row>
@@ -3175,13 +3180,13 @@
         <v>13021</v>
       </c>
       <c r="D53" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E53" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="F53" s="10" t="s">
         <v>138</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>139</v>
       </c>
       <c r="G53" s="10"/>
     </row>
@@ -3190,13 +3195,13 @@
         <v>13031</v>
       </c>
       <c r="D54" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E54" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="F54" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>142</v>
       </c>
       <c r="G54" s="10"/>
     </row>
@@ -3205,13 +3210,13 @@
         <v>13051</v>
       </c>
       <c r="D55" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E55" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="E55" s="10" t="s">
-        <v>144</v>
-      </c>
       <c r="F55" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G55" s="12"/>
     </row>
@@ -3220,13 +3225,13 @@
         <v>14011</v>
       </c>
       <c r="D56" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E56" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="F56" s="10" t="s">
         <v>146</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>147</v>
       </c>
       <c r="G56" s="10"/>
     </row>
@@ -3235,13 +3240,13 @@
         <v>14021</v>
       </c>
       <c r="D57" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E57" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="F57" s="10" t="s">
         <v>149</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>150</v>
       </c>
       <c r="G57" s="10"/>
     </row>
@@ -3253,10 +3258,10 @@
         <v>35</v>
       </c>
       <c r="E58" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F58" s="10" t="s">
         <v>151</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>152</v>
       </c>
       <c r="G58" s="10"/>
     </row>
@@ -3265,13 +3270,13 @@
         <v>14051</v>
       </c>
       <c r="D59" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E59" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="E59" s="10" t="s">
-        <v>154</v>
-      </c>
       <c r="F59" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G59" s="12"/>
     </row>
@@ -3280,13 +3285,13 @@
         <v>15011</v>
       </c>
       <c r="D60" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E60" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="F60" s="10" t="s">
         <v>156</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>157</v>
       </c>
       <c r="G60" s="10"/>
       <c r="J60" s="13">
@@ -3304,13 +3309,13 @@
         <v>15021</v>
       </c>
       <c r="D61" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E61" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="F61" s="10" t="s">
         <v>159</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>160</v>
       </c>
       <c r="G61" s="10"/>
       <c r="J61" s="13">
@@ -3328,13 +3333,13 @@
         <v>15031</v>
       </c>
       <c r="D62" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F62" s="10" t="s">
         <v>161</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>162</v>
       </c>
       <c r="G62" s="10"/>
       <c r="J62" s="13">
@@ -3352,13 +3357,13 @@
         <v>15051</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G63" s="12"/>
       <c r="J63" s="13">
@@ -3376,13 +3381,13 @@
         <v>16011</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G64" s="10"/>
     </row>
@@ -3391,13 +3396,13 @@
         <v>16021</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G65" s="10"/>
       <c r="J65" t="str">
@@ -3418,13 +3423,13 @@
         <v>16031</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G66" s="10"/>
     </row>
@@ -3433,13 +3438,13 @@
         <v>16051</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G67" s="12"/>
     </row>
@@ -3448,13 +3453,13 @@
         <v>17011</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G68" s="10"/>
     </row>
@@ -3463,13 +3468,13 @@
         <v>17021</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G69" s="10"/>
       <c r="J69" t="str">
@@ -3490,13 +3495,13 @@
         <v>17031</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G70" s="10"/>
     </row>
@@ -3505,13 +3510,13 @@
         <v>17051</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G71" s="12"/>
     </row>
@@ -3520,13 +3525,13 @@
         <v>30001</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G72" s="10"/>
     </row>
@@ -3535,13 +3540,13 @@
         <v>30002</v>
       </c>
       <c r="D73" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F73" s="10" t="s">
         <v>177</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>178</v>
       </c>
       <c r="G73" s="10"/>
     </row>
@@ -3550,13 +3555,13 @@
         <v>30003</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G74" s="10"/>
     </row>
@@ -3565,13 +3570,13 @@
         <v>30011</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G75" s="10"/>
     </row>
@@ -3580,13 +3585,13 @@
         <v>30012</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G76" s="10"/>
     </row>
@@ -3595,13 +3600,13 @@
         <v>30013</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G77" s="10"/>
     </row>
@@ -3610,13 +3615,13 @@
         <v>30021</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G78" s="10"/>
     </row>
@@ -3625,13 +3630,13 @@
         <v>30022</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G79" s="10"/>
     </row>
@@ -3640,13 +3645,13 @@
         <v>30023</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G80" s="10"/>
     </row>
@@ -3655,13 +3660,13 @@
         <v>40001</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G81" s="10">
         <v>1</v>
@@ -3675,13 +3680,13 @@
         <v>40002</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G82" s="10">
         <v>1</v>

--- a/Excel/EquipSuitConfig.xlsx
+++ b/Excel/EquipSuitConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503F3252-0736-4542-B089-ADE5ABBD3C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6607852-DE51-4E55-A3AD-774B2AD39F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipSuitProto" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="129">
   <si>
     <t>Id</t>
   </si>
@@ -490,6 +490,10 @@
   </si>
   <si>
     <t>10010001,10010002,10010003</t>
+  </si>
+  <si>
+    <t>猎人套装</t>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2047,13 +2051,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:L50"/>
+  <dimension ref="C1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2876,6 +2880,26 @@
         <v>2</v>
       </c>
     </row>
+    <row r="51" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C51" s="5">
+        <v>40003</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G51" s="5">
+        <v>1</v>
+      </c>
+      <c r="H51" s="12">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/EquipSuitConfig.xlsx
+++ b/Excel/EquipSuitConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6607852-DE51-4E55-A3AD-774B2AD39F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D81B931-45BC-4BF5-BB98-CEF71B585606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31245" yWindow="1215" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipSuitProto" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="135">
   <si>
     <t>Id</t>
   </si>
@@ -494,6 +494,24 @@
   <si>
     <t>猎人套装</t>
     <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>16000401,16000402,16000403,16000404</t>
+  </si>
+  <si>
+    <t>16000405,16000406,16000407,16000408</t>
+  </si>
+  <si>
+    <t>16000409,16000410,16000411,16000412</t>
+  </si>
+  <si>
+    <t>2,300311;3,300312;4,300313</t>
+  </si>
+  <si>
+    <t>2,300321;3,300322;4,300323</t>
+  </si>
+  <si>
+    <t>2,300331;3,300332;4,300333</t>
   </si>
 </sst>
 </file>
@@ -2051,13 +2069,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:L51"/>
+  <dimension ref="C1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G66" sqref="G66"/>
+      <selection pane="bottomRight" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2842,61 +2860,106 @@
     </row>
     <row r="49" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="5">
-        <v>40001</v>
+        <v>30031</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G49" s="5">
-        <v>1</v>
-      </c>
-      <c r="H49" s="12">
-        <v>1</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G49" s="5"/>
     </row>
     <row r="50" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="5">
-        <v>40002</v>
+        <v>30032</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>82</v>
+        <v>57</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>130</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G50" s="5">
-        <v>1</v>
-      </c>
-      <c r="H50" s="12">
-        <v>2</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G50" s="5"/>
     </row>
     <row r="51" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="5">
+        <v>30033</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C52" s="5">
+        <v>40001</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G52" s="5">
+        <v>1</v>
+      </c>
+      <c r="H52" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C53" s="5">
+        <v>40002</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G53" s="5">
+        <v>1</v>
+      </c>
+      <c r="H53" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C54" s="5">
         <v>40003</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D54" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E54" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F54" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G54" s="5">
         <v>1</v>
       </c>
-      <c r="H51" s="12">
+      <c r="H54" s="12">
         <v>3</v>
       </c>
     </row>

--- a/Excel/EquipSuitConfig.xlsx
+++ b/Excel/EquipSuitConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D81B931-45BC-4BF5-BB98-CEF71B585606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD647B87-1B89-4D65-844D-DAD4CA1771AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31245" yWindow="1215" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipSuitProto" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="134">
   <si>
     <t>Id</t>
   </si>
@@ -349,10 +349,6 @@
   </si>
   <si>
     <t>司马套装</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>20010001</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
@@ -2075,7 +2071,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F48" sqref="F48"/>
+      <selection pane="bottomRight" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2141,7 +2137,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>7</v>
@@ -2161,7 +2157,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>10</v>
@@ -2176,7 +2172,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>11</v>
@@ -2191,7 +2187,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>13</v>
@@ -2206,7 +2202,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>14</v>
@@ -2221,7 +2217,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>16</v>
@@ -2236,7 +2232,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>17</v>
@@ -2251,7 +2247,7 @@
         <v>18</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>19</v>
@@ -2266,7 +2262,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>21</v>
@@ -2281,7 +2277,7 @@
         <v>22</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>23</v>
@@ -2296,7 +2292,7 @@
         <v>24</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>25</v>
@@ -2311,7 +2307,7 @@
         <v>26</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>27</v>
@@ -2326,7 +2322,7 @@
         <v>28</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>29</v>
@@ -2341,7 +2337,7 @@
         <v>30</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>31</v>
@@ -2356,7 +2352,7 @@
         <v>32</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>25</v>
@@ -2371,7 +2367,7 @@
         <v>33</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>34</v>
@@ -2386,7 +2382,7 @@
         <v>35</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>36</v>
@@ -2401,7 +2397,7 @@
         <v>37</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>38</v>
@@ -2416,7 +2412,7 @@
         <v>39</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>25</v>
@@ -2431,7 +2427,7 @@
         <v>40</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>41</v>
@@ -2446,7 +2442,7 @@
         <v>42</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>43</v>
@@ -2461,7 +2457,7 @@
         <v>8</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>44</v>
@@ -2476,7 +2472,7 @@
         <v>45</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>25</v>
@@ -2491,7 +2487,7 @@
         <v>46</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>47</v>
@@ -2515,7 +2511,7 @@
         <v>48</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>49</v>
@@ -2539,7 +2535,7 @@
         <v>50</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>51</v>
@@ -2563,7 +2559,7 @@
         <v>52</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>25</v>
@@ -2587,7 +2583,7 @@
         <v>46</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>53</v>
@@ -2602,7 +2598,7 @@
         <v>48</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>54</v>
@@ -2629,7 +2625,7 @@
         <v>50</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>55</v>
@@ -2644,7 +2640,7 @@
         <v>56</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>25</v>
@@ -2659,7 +2655,7 @@
         <v>72</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>67</v>
@@ -2674,7 +2670,7 @@
         <v>71</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>68</v>
@@ -2701,7 +2697,7 @@
         <v>70</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>69</v>
@@ -2716,7 +2712,7 @@
         <v>73</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>25</v>
@@ -2731,7 +2727,7 @@
         <v>57</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>60</v>
@@ -2746,7 +2742,7 @@
         <v>57</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>58</v>
@@ -2761,7 +2757,7 @@
         <v>57</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>59</v>
@@ -2776,7 +2772,7 @@
         <v>57</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>64</v>
@@ -2791,7 +2787,7 @@
         <v>57</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>65</v>
@@ -2806,7 +2802,7 @@
         <v>57</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>66</v>
@@ -2821,7 +2817,7 @@
         <v>57</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>61</v>
@@ -2836,7 +2832,7 @@
         <v>57</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>62</v>
@@ -2851,7 +2847,7 @@
         <v>57</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>63</v>
@@ -2866,10 +2862,10 @@
         <v>57</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G49" s="5"/>
     </row>
@@ -2881,10 +2877,10 @@
         <v>57</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G50" s="5"/>
     </row>
@@ -2896,10 +2892,10 @@
         <v>57</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G51" s="5"/>
     </row>
@@ -2911,7 +2907,7 @@
         <v>80</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>63</v>
@@ -2930,8 +2926,8 @@
       <c r="D53" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E53" s="8" t="s">
-        <v>82</v>
+      <c r="E53" s="8">
+        <v>10010001</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>63</v>
@@ -2948,10 +2944,10 @@
         <v>40003</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>82</v>
+        <v>127</v>
+      </c>
+      <c r="E54" s="8">
+        <v>10010001</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>63</v>

--- a/Excel/EquipSuitConfig.xlsx
+++ b/Excel/EquipSuitConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD647B87-1B89-4D65-844D-DAD4CA1771AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDD0DB4-A934-48A1-80E2-6B244813D40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipSuitProto" sheetId="1" r:id="rId1"/>
@@ -374,18 +374,9 @@
     <t>14050011,14110011</t>
   </si>
   <si>
-    <t>14010004,14020004,14030004,14040004,14050004,14110004,14110021</t>
-  </si>
-  <si>
     <t>14010008,14020008,14030008,14040008,14050008,14110008,14110022</t>
   </si>
   <si>
-    <t>14010012,14020012,14030012,14040012,14050012,14110012,14110023</t>
-  </si>
-  <si>
-    <t>14060005,14100011,14100012,14100111,14100112</t>
-  </si>
-  <si>
     <t>15201002,15202002,15203002,15204002,15205002,15211002,15211011</t>
   </si>
   <si>
@@ -395,9 +386,6 @@
     <t>15201006,15202006,15203006,15204006,15205006,15211006,15211013</t>
   </si>
   <si>
-    <t>15206003,15210011,15210012,15210111,15210112</t>
-  </si>
-  <si>
     <t>15301002,15302002,15303002,15304002,15305002,15311002,15311011</t>
   </si>
   <si>
@@ -407,9 +395,6 @@
     <t>15301006,15302006,15303006,15304006,15305006,15311006,15311013</t>
   </si>
   <si>
-    <t>15306003,15310011,15310012,15310111,15310112</t>
-  </si>
-  <si>
     <t>15401002,15402002,15403002,15404002,15405002,15411002,15411011</t>
   </si>
   <si>
@@ -419,9 +404,6 @@
     <t>15401006,15402006,15403006,15404006,15405006,15411006,15411013</t>
   </si>
   <si>
-    <t>15406003,15410011,15410012,15410111,15410112</t>
-  </si>
-  <si>
     <t>15501002,15502002,15503002,15504002,15505002,15511002,15511011</t>
   </si>
   <si>
@@ -431,9 +413,6 @@
     <t>15501006,15502006,15503006,15504006,15505006,15511006,15511013</t>
   </si>
   <si>
-    <t>15506003,15510011,15510012,15510121,15510122</t>
-  </si>
-  <si>
     <t>15601001,15602001,15603001,15604001,15605001,15611001</t>
   </si>
   <si>
@@ -443,9 +422,6 @@
     <t>15601003,15602003,15603003,15604003,15605003,15611003</t>
   </si>
   <si>
-    <t>15606001,15610001,15610002,15610101,15610102</t>
-  </si>
-  <si>
     <t>15701001,15702001,15703001,15704001,15705001,15711001</t>
   </si>
   <si>
@@ -453,9 +429,6 @@
   </si>
   <si>
     <t>15701003,15702003,15703003,15704003,15705003,15711003</t>
-  </si>
-  <si>
-    <t>15706001,15710001,15710002,15710101,15710102</t>
   </si>
   <si>
     <t>16000101,16000102,16000103,16000104</t>
@@ -508,6 +481,42 @@
   </si>
   <si>
     <t>2,300331;3,300332;4,300333</t>
+  </si>
+  <si>
+    <t>14010004,14020004,14030004,14040004,14050004,14110004,14110021</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>14060005,14100011,14100012,14100111,14100112,14100211</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>14010012,14020012,14030012,14040012,14050012,14110012,14110023</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>15206003,15210011,15210012,15210111,15210112,15200211</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>15306003,15310011,15310012,15310111,15310112,15300211</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>15406003,15410011,15410012,15410111,15410112,15400211</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>15506003,15510011,15510012,15510121,15510122,15500211</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>15606001,15610001,15610002,15610101,15610102,15610201</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>15706001,15710001,15710002,15710101,15710102,15710201</t>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2068,10 +2077,10 @@
   <dimension ref="C1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E54" sqref="E54"/>
+      <selection pane="bottomRight" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2247,7 +2256,7 @@
         <v>18</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>19</v>
@@ -2262,7 +2271,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>21</v>
@@ -2277,7 +2286,7 @@
         <v>22</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>23</v>
@@ -2292,7 +2301,7 @@
         <v>24</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>25</v>
@@ -2307,7 +2316,7 @@
         <v>26</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>27</v>
@@ -2322,7 +2331,7 @@
         <v>28</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>29</v>
@@ -2337,7 +2346,7 @@
         <v>30</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>31</v>
@@ -2352,7 +2361,7 @@
         <v>32</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>25</v>
@@ -2367,7 +2376,7 @@
         <v>33</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>34</v>
@@ -2382,7 +2391,7 @@
         <v>35</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>36</v>
@@ -2397,7 +2406,7 @@
         <v>37</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>38</v>
@@ -2412,7 +2421,7 @@
         <v>39</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>25</v>
@@ -2427,7 +2436,7 @@
         <v>40</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>41</v>
@@ -2442,7 +2451,7 @@
         <v>42</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>43</v>
@@ -2457,7 +2466,7 @@
         <v>8</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>44</v>
@@ -2472,7 +2481,7 @@
         <v>45</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>25</v>
@@ -2487,7 +2496,7 @@
         <v>46</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>47</v>
@@ -2511,7 +2520,7 @@
         <v>48</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>49</v>
@@ -2535,7 +2544,7 @@
         <v>50</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>51</v>
@@ -2559,7 +2568,7 @@
         <v>52</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>25</v>
@@ -2583,7 +2592,7 @@
         <v>46</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>53</v>
@@ -2598,7 +2607,7 @@
         <v>48</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>54</v>
@@ -2625,7 +2634,7 @@
         <v>50</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>55</v>
@@ -2640,7 +2649,7 @@
         <v>56</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>25</v>
@@ -2655,7 +2664,7 @@
         <v>72</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>67</v>
@@ -2670,7 +2679,7 @@
         <v>71</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>68</v>
@@ -2697,7 +2706,7 @@
         <v>70</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>69</v>
@@ -2712,7 +2721,7 @@
         <v>73</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>25</v>
@@ -2727,7 +2736,7 @@
         <v>57</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>60</v>
@@ -2742,7 +2751,7 @@
         <v>57</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>58</v>
@@ -2757,7 +2766,7 @@
         <v>57</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>59</v>
@@ -2772,7 +2781,7 @@
         <v>57</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>64</v>
@@ -2787,7 +2796,7 @@
         <v>57</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>65</v>
@@ -2802,7 +2811,7 @@
         <v>57</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>66</v>
@@ -2817,7 +2826,7 @@
         <v>57</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>61</v>
@@ -2832,7 +2841,7 @@
         <v>57</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>62</v>
@@ -2847,7 +2856,7 @@
         <v>57</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>63</v>
@@ -2862,10 +2871,10 @@
         <v>57</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G49" s="5"/>
     </row>
@@ -2877,10 +2886,10 @@
         <v>57</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G50" s="5"/>
     </row>
@@ -2892,10 +2901,10 @@
         <v>57</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G51" s="5"/>
     </row>
@@ -2907,7 +2916,7 @@
         <v>80</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>63</v>
@@ -2944,7 +2953,7 @@
         <v>40003</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E54" s="8">
         <v>10010001</v>

--- a/Excel/EquipSuitConfig.xlsx
+++ b/Excel/EquipSuitConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDD0DB4-A934-48A1-80E2-6B244813D40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30485F81-675B-42FC-98E2-1D8C0AB8AF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipSuitProto" sheetId="1" r:id="rId1"/>
@@ -507,15 +507,15 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>15506003,15510011,15510012,15510121,15510122,15500211</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>15606001,15610001,15610002,15610101,15610102,15610201</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>15706001,15710001,15710002,15710101,15710102,15710201</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>15506003,15510011,15510012,15510121,15510122,15500211,15510211</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
@@ -2080,7 +2080,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E40" sqref="E40"/>
+      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2568,7 +2568,7 @@
         <v>52</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>25</v>
@@ -2649,7 +2649,7 @@
         <v>56</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>25</v>
@@ -2721,7 +2721,7 @@
         <v>73</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>25</v>

--- a/Excel/EquipSuitConfig.xlsx
+++ b/Excel/EquipSuitConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30485F81-675B-42FC-98E2-1D8C0AB8AF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF53392-93B3-43C7-82DB-F2D381BA802A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37710" yWindow="645" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipSuitProto" sheetId="1" r:id="rId1"/>
@@ -503,10 +503,6 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>15406003,15410011,15410012,15410111,15410112,15400211</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>15606001,15610001,15610002,15610101,15610102,15610201</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -516,6 +512,10 @@
   </si>
   <si>
     <t>15506003,15510011,15510012,15510121,15510122,15500211,15510211</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>15406003,15410011,15410012,15410111,15410112,15410211</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
@@ -2080,7 +2080,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2481,7 +2481,7 @@
         <v>45</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>25</v>
@@ -2568,7 +2568,7 @@
         <v>52</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>25</v>
@@ -2649,7 +2649,7 @@
         <v>56</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>25</v>
@@ -2721,7 +2721,7 @@
         <v>73</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>25</v>

--- a/Excel/EquipSuitConfig.xlsx
+++ b/Excel/EquipSuitConfig.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665E7048-1E64-4A49-9888-058807358FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14085"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipSuitProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">作者:
@@ -36,19 +43,21 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>件数,触发套装属性</t>
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">作者:
@@ -59,6 +68,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">0 默认
@@ -69,19 +79,21 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>1 时装</t>
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">作者:
@@ -92,6 +104,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">0 默认
@@ -102,6 +115,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>1 时装</t>
@@ -113,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="140">
   <si>
     <t>Id</t>
   </si>
@@ -512,19 +526,34 @@
   </si>
   <si>
     <t>猎人套装</t>
+  </si>
+  <si>
+    <t>2,180111;4,180112;6,180113</t>
+  </si>
+  <si>
+    <t>2,180121;4,180122;6,180123</t>
+  </si>
+  <si>
+    <t>2,180131;4,180132;6,180133</t>
+  </si>
+  <si>
+    <t>15801001,15802001,15803001,15804001,15805001,15811001</t>
+  </si>
+  <si>
+    <t>15801002,15802002,15803002,15804002,15805002,15811002</t>
+  </si>
+  <si>
+    <t>15801003,15802003,15803003,15804003,15805003,15811003</t>
+  </si>
+  <si>
+    <t>15806001,15810001,15810002,15810101,15810102,15810201</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="42">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,6 +565,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -543,12 +573,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -556,6 +588,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -563,51 +596,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -615,21 +604,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -637,14 +619,8 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -652,6 +628,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -660,37 +637,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -699,6 +646,7 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -707,6 +655,74 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -715,118 +731,7 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -834,11 +739,26 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="75">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -859,25 +779,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149937437055574"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.148930326242866"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149571214941862"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="0" tint="-0.14990691854609822"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14889980773339029"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14954069643238624"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79992065187536243"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79992065187536243"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79992065187536243"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39991454817346722"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,7 +851,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,97 +863,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79989013336588644"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39991454817346722"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39991454817346722"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79989013336588644"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79989013336588644"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39991454817346722"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79989013336588644"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79992065187536243"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39991454817346722"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79992065187536243"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79992065187536243"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799920651875362"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39991454817346722"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,37 +1001,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,248 +1017,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1393,26 +1127,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thick">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1439,600 +1155,456 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="202">
+  <cellStyleXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="71" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2063,227 +1635,188 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="202">
+  <cellStyles count="154">
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="23" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 4" xfId="20" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="15" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 4" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 4" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 4" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 4" xfId="59" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="63" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="64" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="65" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="67" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 4" xfId="69" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="73" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="74" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="75" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 4" xfId="76" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="77" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="80" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 4" xfId="82" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="86" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="87" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 4" xfId="89" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="91" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="92" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="93" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="94" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 4" xfId="61" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="96" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 4" xfId="66" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="104" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="105" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="106" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 4" xfId="107" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="60% - 强调文字颜色 1 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="60% - 强调文字颜色 2 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="60% - 强调文字颜色 3 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="60% - 强调文字颜色 4 2" xfId="68" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="60% - 强调文字颜色 5 2" xfId="108" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="60% - 强调文字颜色 6 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="标题 1 2" xfId="110" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="标题 2 2" xfId="112" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="标题 3 2" xfId="113" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="标题 4 2" xfId="114" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="标题 5" xfId="5" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="差 2" xfId="115" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="货币" xfId="5" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="计算 2" xfId="7"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="差" xfId="9" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="11"/>
-    <cellStyle name="常规 2 3 2 3 2" xfId="12"/>
-    <cellStyle name="标题 5" xfId="13"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="14"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="15" builtinId="40"/>
-    <cellStyle name="超链接" xfId="16" builtinId="8"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="17"/>
-    <cellStyle name="百分比" xfId="18" builtinId="5"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="19"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9"/>
-    <cellStyle name="常规 6" xfId="21"/>
-    <cellStyle name="注释" xfId="22" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="23" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="24" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="25" builtinId="11"/>
-    <cellStyle name="常规 5 2" xfId="26"/>
-    <cellStyle name="标题" xfId="27" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="28" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="29" builtinId="16"/>
-    <cellStyle name="常规 5 2 2" xfId="30"/>
-    <cellStyle name="标题 2" xfId="31" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="32" builtinId="32"/>
-    <cellStyle name="常规 5 2 3" xfId="33"/>
-    <cellStyle name="标题 3" xfId="34" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="35" builtinId="44"/>
-    <cellStyle name="输出" xfId="36" builtinId="21"/>
-    <cellStyle name="计算" xfId="37" builtinId="22"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="38"/>
-    <cellStyle name="检查单元格" xfId="39" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="40" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="41" builtinId="33"/>
-    <cellStyle name="注释 2 3" xfId="42"/>
-    <cellStyle name="链接单元格" xfId="43" builtinId="24"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="44"/>
-    <cellStyle name="汇总" xfId="45" builtinId="25"/>
-    <cellStyle name="好" xfId="46" builtinId="26"/>
-    <cellStyle name="常规 2 3 2 4" xfId="47"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="48"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="49"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="50"/>
-    <cellStyle name="适中" xfId="51" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 1 4" xfId="52"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="53" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="54" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="55" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="56"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="57" builtinId="31"/>
-    <cellStyle name="输出 2" xfId="58"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="59" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="60" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="61" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="62" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="63"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="64" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="65" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="66" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="67" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="68" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="69" builtinId="49"/>
-    <cellStyle name="适中 2" xfId="70"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="71"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="72" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="73" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="74"/>
-    <cellStyle name="常规 2 3 2 3" xfId="75"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="76"/>
-    <cellStyle name="常规 2 3 3 3" xfId="77"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="78"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="79"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="80"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="81"/>
-    <cellStyle name="20% - 强调文字颜色 2 4" xfId="82"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="83"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="84"/>
-    <cellStyle name="60% - 强调文字颜色 1 2" xfId="85"/>
-    <cellStyle name="20% - 强调文字颜色 3 4" xfId="86"/>
-    <cellStyle name="常规 3" xfId="87"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="88"/>
-    <cellStyle name="常规 3 2" xfId="89"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="90"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="91"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="92"/>
-    <cellStyle name="常规 4" xfId="93"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="94"/>
-    <cellStyle name="常规 4 2" xfId="95"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="96"/>
-    <cellStyle name="常规 5" xfId="97"/>
-    <cellStyle name="60% - 强调文字颜色 2 2" xfId="98"/>
-    <cellStyle name="20% - 强调文字颜色 4 4" xfId="99"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="100"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="101"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="102"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="103"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="104"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="105"/>
-    <cellStyle name="60% - 强调文字颜色 3 2" xfId="106"/>
-    <cellStyle name="20% - 强调文字颜色 5 4" xfId="107"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="108"/>
-    <cellStyle name="40% - 强调文字颜色 4 4" xfId="109"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="110"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="111"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="112"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="113"/>
-    <cellStyle name="40% - 强调文字颜色 5 4" xfId="114"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="115"/>
-    <cellStyle name="60% - 强调文字颜色 4 2" xfId="116"/>
-    <cellStyle name="20% - 强调文字颜色 6 4" xfId="117"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="118"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="119"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="120"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="121"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="122"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="123"/>
-    <cellStyle name="40% - 强调文字颜色 1 4" xfId="124"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="125"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="126"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="127"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="128"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="129"/>
-    <cellStyle name="40% - 强调文字颜色 2 4" xfId="130"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="131"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="132"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="133"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="134"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="135"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="136"/>
-    <cellStyle name="40% - 强调文字颜色 3 4" xfId="137"/>
-    <cellStyle name="检查单元格 2" xfId="138"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="139"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="140"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="141"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="142"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="143"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="144"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="145"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="146"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="147"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="148"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="149"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="150"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="151"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="152"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="153"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="154"/>
-    <cellStyle name="40% - 强调文字颜色 6 4" xfId="155"/>
-    <cellStyle name="60% - 强调文字颜色 5 2" xfId="156"/>
-    <cellStyle name="60% - 强调文字颜色 6 2" xfId="157"/>
-    <cellStyle name="标题 1 2" xfId="158"/>
-    <cellStyle name="常规 5 2 2 2" xfId="159"/>
-    <cellStyle name="标题 2 2" xfId="160"/>
-    <cellStyle name="标题 3 2" xfId="161"/>
-    <cellStyle name="标题 4 2" xfId="162"/>
-    <cellStyle name="差 2" xfId="163"/>
-    <cellStyle name="常规 2" xfId="164"/>
-    <cellStyle name="常规 2 2" xfId="165"/>
-    <cellStyle name="常规 2 2 2" xfId="166"/>
-    <cellStyle name="常规 2 3" xfId="167"/>
-    <cellStyle name="常规 2 3 2" xfId="168"/>
-    <cellStyle name="常规 2 3 2 2" xfId="169"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="170"/>
-    <cellStyle name="常规 2 3 2 2 2 2" xfId="171"/>
-    <cellStyle name="常规 2 3 2 2 3" xfId="172"/>
-    <cellStyle name="常规 2 3 3" xfId="173"/>
-    <cellStyle name="常规 2 3 3 2" xfId="174"/>
-    <cellStyle name="常规 2 3 3 2 2" xfId="175"/>
-    <cellStyle name="常规 2 3 4" xfId="176"/>
-    <cellStyle name="常规 2 3 4 2" xfId="177"/>
-    <cellStyle name="常规 2 3 5" xfId="178"/>
-    <cellStyle name="常规 2 4" xfId="179"/>
-    <cellStyle name="常规 5 3" xfId="180"/>
-    <cellStyle name="常规 5 3 2" xfId="181"/>
-    <cellStyle name="常规 5 4" xfId="182"/>
-    <cellStyle name="好 2" xfId="183"/>
-    <cellStyle name="汇总 2" xfId="184"/>
-    <cellStyle name="解释性文本 2" xfId="185"/>
-    <cellStyle name="警告文本 2" xfId="186"/>
-    <cellStyle name="注释 2 3 2" xfId="187"/>
-    <cellStyle name="链接单元格 2" xfId="188"/>
-    <cellStyle name="强调文字颜色 1 2" xfId="189"/>
-    <cellStyle name="强调文字颜色 2 2" xfId="190"/>
-    <cellStyle name="强调文字颜色 3 2" xfId="191"/>
-    <cellStyle name="强调文字颜色 4 2" xfId="192"/>
-    <cellStyle name="强调文字颜色 5 2" xfId="193"/>
-    <cellStyle name="强调文字颜色 6 2" xfId="194"/>
-    <cellStyle name="输入 2" xfId="195"/>
-    <cellStyle name="注释 2" xfId="196"/>
-    <cellStyle name="注释 2 2" xfId="197"/>
-    <cellStyle name="注释 2 2 2" xfId="198"/>
-    <cellStyle name="注释 2 2 2 2" xfId="199"/>
-    <cellStyle name="注释 2 2 3" xfId="200"/>
-    <cellStyle name="注释 2 4" xfId="201"/>
+    <cellStyle name="常规 2" xfId="116" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="常规 2 2" xfId="117" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="常规 2 2 2" xfId="118" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="常规 2 3" xfId="119" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="常规 2 3 2" xfId="120" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="常规 2 3 2 2" xfId="121" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="常规 2 3 2 2 2 2" xfId="123" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="常规 2 3 2 2 3" xfId="124" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="常规 2 3 2 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="常规 2 3 2 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 2 3 2 4" xfId="16" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="常规 2 3 3" xfId="125" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="常规 2 3 3 2" xfId="126" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="常规 2 3 3 2 2" xfId="127" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="常规 2 3 3 3" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="常规 2 3 4" xfId="128" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="常规 2 3 4 2" xfId="129" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="常规 2 3 5" xfId="130" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="常规 2 4" xfId="131" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="常规 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="常规 3 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="常规 4" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="常规 4 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="常规 5" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="常规 5 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="常规 5 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="常规 5 2 2 2" xfId="111" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="常规 5 2 3" xfId="12" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="常规 5 3" xfId="132" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="常规 5 3 2" xfId="133" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="常规 5 4" xfId="134" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="常规 6" xfId="9" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="好 2" xfId="135" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="汇总 2" xfId="136" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="计算 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="检查单元格 2" xfId="90" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="解释性文本 2" xfId="137" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="警告文本 2" xfId="138" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="链接单元格 2" xfId="140" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="强调文字颜色 1 2" xfId="141" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="强调文字颜色 2 2" xfId="142" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="强调文字颜色 3 2" xfId="143" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="强调文字颜色 4 2" xfId="144" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="强调文字颜色 5 2" xfId="145" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="强调文字颜色 6 2" xfId="146" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="适中 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="输出 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="输入 2" xfId="147" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="注释 2" xfId="148" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="注释 2 2" xfId="149" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="注释 2 2 2" xfId="150" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="注释 2 2 2 2" xfId="151" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="注释 2 2 3" xfId="152" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="注释 2 3" xfId="14" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="注释 2 3 2" xfId="139" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="注释 2 4" xfId="153" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2568,23 +2101,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="C1:L54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="9.125" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
@@ -2595,11 +2127,11 @@
     <col min="8" max="8" width="20.625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="7:8">
+    <row r="1" spans="3:8" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="G1" s="5"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:8">
+    <row r="3" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
@@ -2619,7 +2151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:8">
+    <row r="4" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
@@ -2639,7 +2171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:8">
+    <row r="5" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
@@ -2659,7 +2191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="20.1" customHeight="1" spans="3:7">
+    <row r="6" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="9">
         <v>11011</v>
       </c>
@@ -2674,7 +2206,7 @@
       </c>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" ht="20.1" customHeight="1" spans="3:7">
+    <row r="7" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="9">
         <v>11012</v>
       </c>
@@ -2689,7 +2221,7 @@
       </c>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:7">
+    <row r="8" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="9">
         <v>11021</v>
       </c>
@@ -2704,7 +2236,7 @@
       </c>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="3:7">
+    <row r="9" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="9">
         <v>11022</v>
       </c>
@@ -2719,7 +2251,7 @@
       </c>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="3:7">
+    <row r="10" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="9">
         <v>11031</v>
       </c>
@@ -2734,7 +2266,7 @@
       </c>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="3:7">
+    <row r="11" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="9">
         <v>11032</v>
       </c>
@@ -2749,7 +2281,7 @@
       </c>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="3:7">
+    <row r="12" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="9">
         <v>11041</v>
       </c>
@@ -2764,7 +2296,7 @@
       </c>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="3:7">
+    <row r="13" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="9">
         <v>11042</v>
       </c>
@@ -2779,7 +2311,7 @@
       </c>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="3:7">
+    <row r="14" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="9">
         <v>11043</v>
       </c>
@@ -2794,7 +2326,7 @@
       </c>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="3:7">
+    <row r="15" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="9">
         <v>11051</v>
       </c>
@@ -2809,7 +2341,7 @@
       </c>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="3:7">
+    <row r="16" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="9">
         <v>12011</v>
       </c>
@@ -2824,7 +2356,7 @@
       </c>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="3:7">
+    <row r="17" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="9">
         <v>12021</v>
       </c>
@@ -2839,7 +2371,7 @@
       </c>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:7">
+    <row r="18" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="9">
         <v>12031</v>
       </c>
@@ -2854,7 +2386,7 @@
       </c>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="3:7">
+    <row r="19" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="9">
         <v>12051</v>
       </c>
@@ -2869,7 +2401,7 @@
       </c>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="3:7">
+    <row r="20" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="9">
         <v>13011</v>
       </c>
@@ -2884,7 +2416,7 @@
       </c>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" ht="20.1" customHeight="1" spans="3:7">
+    <row r="21" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="9">
         <v>13021</v>
       </c>
@@ -2899,7 +2431,7 @@
       </c>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" ht="20.1" customHeight="1" spans="3:7">
+    <row r="22" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="9">
         <v>13031</v>
       </c>
@@ -2914,7 +2446,7 @@
       </c>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" ht="20.1" customHeight="1" spans="3:7">
+    <row r="23" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="9">
         <v>13051</v>
       </c>
@@ -2929,7 +2461,7 @@
       </c>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="20.1" customHeight="1" spans="3:7">
+    <row r="24" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="9">
         <v>14011</v>
       </c>
@@ -2944,7 +2476,7 @@
       </c>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" ht="20.1" customHeight="1" spans="3:7">
+    <row r="25" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="9">
         <v>14021</v>
       </c>
@@ -2959,7 +2491,7 @@
       </c>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" ht="20.1" customHeight="1" spans="3:7">
+    <row r="26" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="9">
         <v>14031</v>
       </c>
@@ -2974,7 +2506,7 @@
       </c>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" ht="20.1" customHeight="1" spans="3:7">
+    <row r="27" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="9">
         <v>14051</v>
       </c>
@@ -2989,7 +2521,7 @@
       </c>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="20.1" customHeight="1" spans="3:12">
+    <row r="28" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="9">
         <v>15011</v>
       </c>
@@ -3013,7 +2545,7 @@
         <v>16000109</v>
       </c>
     </row>
-    <row r="29" ht="20.1" customHeight="1" spans="3:12">
+    <row r="29" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="9">
         <v>15021</v>
       </c>
@@ -3037,7 +2569,7 @@
         <v>16000110</v>
       </c>
     </row>
-    <row r="30" ht="20.1" customHeight="1" spans="3:12">
+    <row r="30" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="9">
         <v>15031</v>
       </c>
@@ -3061,7 +2593,7 @@
         <v>16000111</v>
       </c>
     </row>
-    <row r="31" ht="20.1" customHeight="1" spans="3:12">
+    <row r="31" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="9">
         <v>15051</v>
       </c>
@@ -3085,7 +2617,7 @@
         <v>16000112</v>
       </c>
     </row>
-    <row r="32" ht="20.1" customHeight="1" spans="3:7">
+    <row r="32" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="9">
         <v>16011</v>
       </c>
@@ -3100,7 +2632,7 @@
       </c>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" ht="20.1" customHeight="1" spans="3:12">
+    <row r="33" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="9">
         <v>16021</v>
       </c>
@@ -3127,7 +2659,7 @@
         <v>16000109;16000110;16000111;16000112</v>
       </c>
     </row>
-    <row r="34" ht="20.1" customHeight="1" spans="3:7">
+    <row r="34" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="9">
         <v>16031</v>
       </c>
@@ -3142,7 +2674,7 @@
       </c>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" ht="20.1" customHeight="1" spans="3:7">
+    <row r="35" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="9">
         <v>16051</v>
       </c>
@@ -3157,7 +2689,7 @@
       </c>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" ht="20.1" customHeight="1" spans="3:7">
+    <row r="36" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="9">
         <v>17011</v>
       </c>
@@ -3172,7 +2704,7 @@
       </c>
       <c r="G36" s="9"/>
     </row>
-    <row r="37" ht="20.1" customHeight="1" spans="3:12">
+    <row r="37" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="9">
         <v>17021</v>
       </c>
@@ -3199,7 +2731,7 @@
         <v>;16000109;16000110;16000111;16000112;;</v>
       </c>
     </row>
-    <row r="38" ht="20.1" customHeight="1" spans="3:7">
+    <row r="38" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="9">
         <v>17031</v>
       </c>
@@ -3214,7 +2746,7 @@
       </c>
       <c r="G38" s="9"/>
     </row>
-    <row r="39" ht="20.1" customHeight="1" spans="3:7">
+    <row r="39" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C39" s="9">
         <v>17051</v>
       </c>
@@ -3229,250 +2761,310 @@
       </c>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" ht="20.1" customHeight="1" spans="3:7">
+    <row r="40" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="9">
+        <v>18011</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C41" s="9">
+        <v>18021</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C42" s="9">
+        <v>18031</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C43" s="9">
+        <v>18051</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="11"/>
+    </row>
+    <row r="44" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C44" s="9">
         <v>30001</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="G40" s="9"/>
-    </row>
-    <row r="41" ht="20.1" customHeight="1" spans="3:7">
-      <c r="C41" s="9">
-        <v>30002</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" ht="20.1" customHeight="1" spans="3:7">
-      <c r="C42" s="9">
-        <v>30003</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" ht="20.1" customHeight="1" spans="3:7">
-      <c r="C43" s="9">
-        <v>30011</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G43" s="9"/>
-    </row>
-    <row r="44" ht="20.1" customHeight="1" spans="3:7">
-      <c r="C44" s="9">
-        <v>30012</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>104</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G44" s="9"/>
     </row>
-    <row r="45" ht="20.1" customHeight="1" spans="3:7">
+    <row r="45" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="9">
-        <v>30013</v>
+        <v>30002</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>104</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G45" s="9"/>
     </row>
-    <row r="46" ht="20.1" customHeight="1" spans="3:7">
+    <row r="46" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="9">
-        <v>30021</v>
+        <v>30003</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>104</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G46" s="9"/>
     </row>
-    <row r="47" ht="20.1" customHeight="1" spans="3:7">
+    <row r="47" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="9">
-        <v>30022</v>
+        <v>30011</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>104</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G47" s="9"/>
     </row>
-    <row r="48" ht="20.1" customHeight="1" spans="3:7">
+    <row r="48" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C48" s="9">
-        <v>30023</v>
+        <v>30012</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>104</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G48" s="9"/>
     </row>
-    <row r="49" ht="20.1" customHeight="1" spans="3:7">
+    <row r="49" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="9">
-        <v>30031</v>
+        <v>30013</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E49" s="16" t="s">
-        <v>123</v>
+      <c r="E49" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G49" s="9"/>
     </row>
-    <row r="50" ht="20.1" customHeight="1" spans="3:7">
+    <row r="50" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="9">
-        <v>30032</v>
+        <v>30021</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E50" s="16" t="s">
-        <v>125</v>
+      <c r="E50" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G50" s="9"/>
     </row>
-    <row r="51" ht="20.1" customHeight="1" spans="3:7">
+    <row r="51" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="9">
-        <v>30033</v>
+        <v>30022</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E51" s="16" t="s">
-        <v>127</v>
+      <c r="E51" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G51" s="9"/>
     </row>
-    <row r="52" ht="20.1" customHeight="1" spans="3:8">
+    <row r="52" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="9">
-        <v>40001</v>
+        <v>30023</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>130</v>
+        <v>104</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="F52" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G52" s="9"/>
+    </row>
+    <row r="53" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C53" s="9">
+        <v>30031</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G53" s="9"/>
+    </row>
+    <row r="54" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C54" s="9">
+        <v>30032</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C55" s="9">
+        <v>30033</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C56" s="9">
+        <v>40001</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G56" s="9">
         <v>1</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H56" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="53" ht="20.1" customHeight="1" spans="3:8">
-      <c r="C53" s="9">
+    <row r="57" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C57" s="9">
         <v>40002</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D57" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E57" s="13">
         <v>10010001</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F57" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G57" s="9">
         <v>1</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H57" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="54" ht="20.1" customHeight="1" spans="3:8">
-      <c r="C54" s="9">
+    <row r="58" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C58" s="9">
         <v>40003</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D58" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E58" s="13">
         <v>10010001</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F58" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G58" s="9">
         <v>1</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H58" s="4">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="24" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>